--- a/01_WorkInProgress/01_PréProd/planning.xlsx
+++ b/01_WorkInProgress/01_PréProd/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p118804\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AF9B28-678B-4B6A-AFEC-297C3692AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9D942-D8BB-4C42-8340-3D953E3F21E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
   <si>
     <t>Pré-production</t>
   </si>
@@ -325,13 +325,16 @@
   </si>
   <si>
     <t>VFX Scène 2</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +400,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFCCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -540,15 +550,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,14 +562,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -575,9 +572,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,11 +606,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,24 +627,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -681,7 +679,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -705,9 +731,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -745,7 +771,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -851,7 +877,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -993,7 +1019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1007,12 +1033,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1054,7 @@
         <v>45836</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1062,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1044,10 +1070,10 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1086,46 +1112,44 @@
   </sheetPr>
   <dimension ref="A1:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" customWidth="1"/>
-    <col min="8" max="8" width="4.1796875" customWidth="1"/>
-    <col min="9" max="9" width="4.08984375" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" customWidth="1"/>
-    <col min="11" max="13" width="3.54296875" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" customWidth="1"/>
-    <col min="16" max="16" width="3.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="3.54296875" customWidth="1"/>
-    <col min="19" max="19" width="4.453125" customWidth="1"/>
-    <col min="20" max="20" width="4.08984375" customWidth="1"/>
-    <col min="21" max="23" width="4.1796875" customWidth="1"/>
-    <col min="24" max="24" width="4.26953125" customWidth="1"/>
-    <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="26" width="3.90625" customWidth="1"/>
-    <col min="27" max="27" width="3.7265625" customWidth="1"/>
-    <col min="28" max="28" width="3.6328125" customWidth="1"/>
-    <col min="29" max="29" width="3.81640625" customWidth="1"/>
-    <col min="30" max="30" width="4.08984375" customWidth="1"/>
-    <col min="31" max="31" width="4.26953125" customWidth="1"/>
-    <col min="32" max="32" width="4.6328125" customWidth="1"/>
-    <col min="33" max="34" width="4.453125" customWidth="1"/>
-    <col min="35" max="35" width="4.7265625" customWidth="1"/>
-    <col min="36" max="36" width="4.1796875" customWidth="1"/>
-    <col min="37" max="37" width="32.90625" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="23" width="4.140625" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" customWidth="1"/>
+    <col min="30" max="30" width="4.140625" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" customWidth="1"/>
+    <col min="33" max="34" width="4.42578125" customWidth="1"/>
+    <col min="35" max="35" width="4.7109375" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1168,7 +1192,7 @@
       <c r="AH1" s="55"/>
       <c r="AI1" s="55"/>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="G2">
         <v>1</v>
       </c>
@@ -1257,7 +1281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -1272,11 +1296,11 @@
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="3">
         <f>MOD(WEEKNUM(Settings!B1),52)</f>
         <v>49</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="3">
         <f>MOD(G3+1,53)</f>
         <v>50</v>
       </c>
@@ -1392,116 +1416,116 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48">
         <v>10</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="50">
         <f>Settings!B1</f>
         <v>45627</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="50">
         <f>E4+D4*7</f>
         <v>45697</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60" t="str">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51" t="str">
         <f t="shared" ref="Q4:AI4" si="1">IF(AND(Q2&gt;0,Q2&lt;=0+$D$4),"X","")</f>
         <v/>
       </c>
-      <c r="R4" s="60" t="str">
+      <c r="R4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S4" s="60" t="str">
+      <c r="S4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T4" s="60" t="str">
+      <c r="T4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U4" s="60" t="str">
+      <c r="U4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V4" s="60" t="str">
+      <c r="V4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W4" s="60" t="str">
+      <c r="W4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X4" s="60" t="str">
+      <c r="X4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y4" s="60" t="str">
+      <c r="Y4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z4" s="60" t="str">
+      <c r="Z4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA4" s="60" t="str">
+      <c r="AA4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB4" s="60" t="str">
+      <c r="AB4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC4" s="60" t="str">
+      <c r="AC4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD4" s="60" t="str">
+      <c r="AD4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE4" s="60" t="str">
+      <c r="AE4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF4" s="60" t="str">
+      <c r="AF4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG4" s="60" t="str">
+      <c r="AG4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH4" s="60" t="str">
+      <c r="AH4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI4" s="60" t="str">
+      <c r="AI4" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ4" s="60"/>
-    </row>
-    <row r="5" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="51"/>
+    </row>
+    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="20"/>
@@ -1515,24 +1539,24 @@
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="I5" s="35" t="str">
+      <c r="I5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="J5" s="35" t="str">
+      <c r="J5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="K5" s="35" t="str">
+      <c r="K5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L5" s="35" t="str">
+      <c r="L5" s="11" t="str">
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -1541,11 +1565,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1562,7 +1586,7 @@
       <c r="AI5" s="11"/>
       <c r="AJ5" s="12"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1596,8 +1620,8 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -1606,11 +1630,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -1627,7 +1651,7 @@
       <c r="AI6" s="11"/>
       <c r="AJ6" s="12"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
@@ -1661,8 +1685,8 @@
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -1671,11 +1695,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -1692,7 +1716,7 @@
       <c r="AI7" s="11"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
@@ -1726,8 +1750,8 @@
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -1736,11 +1760,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -1757,8 +1781,8 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="12"/>
     </row>
-    <row r="9" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -1783,16 +1807,16 @@
         <f t="shared" si="5"/>
         <v>X</v>
       </c>
-      <c r="K9" s="25" t="str">
+      <c r="K9" s="24" t="str">
         <f t="shared" si="5"/>
         <v>X</v>
       </c>
-      <c r="L9" s="25" t="str">
+      <c r="L9" s="24" t="str">
         <f t="shared" si="5"/>
         <v>X</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="31"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -1801,11 +1825,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -1822,11 +1846,11 @@
       <c r="AI9" s="11"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="20"/>
@@ -1848,18 +1872,18 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="K10" s="25" t="str">
+      <c r="K10" s="24" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="L10" s="25" t="str">
+      <c r="L10" s="24" t="str">
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="M10" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="37" t="s">
+      <c r="M10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>53</v>
       </c>
       <c r="O10" s="22" t="str">
@@ -1870,15 +1894,15 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q10" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
+      <c r="Q10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -1895,11 +1919,11 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="12"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="29" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="20"/>
@@ -1921,18 +1945,18 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="K11" s="25" t="str">
+      <c r="K11" s="24" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="L11" s="25" t="str">
+      <c r="L11" s="24" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="M11" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="37" t="s">
+      <c r="M11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>53</v>
       </c>
       <c r="O11" s="22" t="str">
@@ -1943,17 +1967,17 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q11" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
+      <c r="Q11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -1970,7 +1994,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="12"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
@@ -1996,18 +2020,18 @@
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="K12" s="24" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="L12" s="25" t="str">
+      <c r="L12" s="24" t="str">
         <f t="shared" si="8"/>
         <v>X</v>
       </c>
-      <c r="M12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="37" t="s">
+      <c r="M12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="30" t="s">
         <v>53</v>
       </c>
       <c r="O12" s="22" t="str">
@@ -2018,17 +2042,17 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
+      <c r="Q12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -2045,7 +2069,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="12"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2095,7 @@
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="K13" s="25" t="str">
+      <c r="K13" s="24" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
@@ -2079,8 +2103,8 @@
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2089,11 +2113,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -2110,7 +2134,7 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="12"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2136,7 +2160,7 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="K14" s="25" t="str">
+      <c r="K14" s="24" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
@@ -2144,8 +2168,8 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2154,11 +2178,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -2175,7 +2199,7 @@
       <c r="AI14" s="11"/>
       <c r="AJ14" s="12"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -2201,7 +2225,7 @@
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="K15" s="25" t="str">
+      <c r="K15" s="24" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
@@ -2209,9 +2233,9 @@
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="38" t="str">
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="31" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
@@ -2219,11 +2243,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
@@ -2240,7 +2264,7 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="12"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
@@ -2266,15 +2290,15 @@
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="25" t="str">
         <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2283,11 +2307,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
@@ -2304,7 +2328,7 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>51</v>
       </c>
@@ -2314,7 +2338,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="26" t="str">
         <f t="shared" ref="G17:L17" si="13">IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
@@ -2330,7 +2354,7 @@
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="K17" s="29" t="str">
+      <c r="K17" s="25" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
@@ -2338,8 +2362,8 @@
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2348,11 +2372,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -2369,7 +2393,7 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="12"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2379,7 +2403,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="26" t="str">
         <f t="shared" ref="G18:L18" si="14">IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
@@ -2395,7 +2419,7 @@
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="25" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
@@ -2403,8 +2427,8 @@
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2413,11 +2437,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -2434,7 +2458,7 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="12"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
@@ -2460,18 +2484,18 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="K19" s="25" t="str">
+      <c r="K19" s="24" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="L19" s="25" t="str">
+      <c r="L19" s="24" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="M19" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="31"/>
+      <c r="M19" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="27"/>
       <c r="O19" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2480,11 +2504,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -2501,7 +2525,7 @@
       <c r="AI19" s="11"/>
       <c r="AJ19" s="12"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>45</v>
       </c>
@@ -2535,8 +2559,8 @@
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2545,17 +2569,17 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q20" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
+      <c r="Q20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -2572,7 +2596,7 @@
       <c r="AI20" s="11"/>
       <c r="AJ20" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
@@ -2606,10 +2630,10 @@
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M21" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="37" t="s">
+      <c r="M21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="30" t="s">
         <v>53</v>
       </c>
       <c r="O21" s="11" t="str">
@@ -2620,11 +2644,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -2641,7 +2665,7 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="12"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
@@ -2673,8 +2697,8 @@
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2683,17 +2707,17 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="40"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="32"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -2710,17 +2734,17 @@
       <c r="AI22" s="11"/>
       <c r="AJ22" s="12"/>
     </row>
-    <row r="23" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="14" t="str">
         <f t="shared" ref="G23:L23" si="16">IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2741,37 +2765,37 @@
         <f t="shared" si="16"/>
         <v>X</v>
       </c>
-      <c r="L23" s="47" t="str">
+      <c r="L23" s="39" t="str">
         <f t="shared" si="16"/>
         <v>X</v>
       </c>
-      <c r="M23" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="47" t="str">
+      <c r="M23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="39" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="P23" s="47" t="str">
+      <c r="P23" s="39" t="str">
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q23" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="R23" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="T23" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" s="46" t="s">
+      <c r="Q23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="38" t="s">
         <v>53</v>
       </c>
       <c r="V23" s="14"/>
@@ -2790,100 +2814,100 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="57">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="48">
         <v>14</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="50">
         <f>F4</f>
         <v>45697</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="50">
         <f>E24+D24*7</f>
         <v>45795</v>
       </c>
-      <c r="G24" s="60" t="str">
+      <c r="G24" s="51" t="str">
         <f t="shared" ref="G24:AI24" si="17">IF(AND(G2&gt;$D$4,G2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="H24" s="60" t="str">
+      <c r="H24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I24" s="60" t="str">
+      <c r="I24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="J24" s="60" t="str">
+      <c r="J24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K24" s="60" t="str">
+      <c r="K24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="L24" s="60" t="str">
+      <c r="L24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="M24" s="60" t="str">
+      <c r="M24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="N24" s="60" t="str">
+      <c r="N24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="O24" s="60" t="str">
+      <c r="O24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P24" s="60" t="str">
+      <c r="P24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="60" t="str">
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AF24" s="60" t="str">
+      <c r="AF24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AG24" s="60" t="str">
+      <c r="AG24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AH24" s="60" t="str">
+      <c r="AH24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AI24" s="60" t="str">
+      <c r="AI24" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AJ24" s="60"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AJ24" s="51"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>21</v>
       </c>
@@ -2893,26 +2917,26 @@
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43" t="str">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35" t="str">
         <f t="shared" ref="N25:AE25" si="18">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="O25" s="43" t="str">
+      <c r="O25" s="35" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="P25" s="43" t="str">
+      <c r="P25" s="35" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2964,11 +2988,11 @@
         <f t="shared" si="18"/>
         <v>X</v>
       </c>
-      <c r="AC25" s="39" t="str">
+      <c r="AC25" s="15" t="str">
         <f t="shared" si="18"/>
         <v>X</v>
       </c>
-      <c r="AD25" s="39" t="str">
+      <c r="AD25" s="15" t="str">
         <f t="shared" si="18"/>
         <v>X</v>
       </c>
@@ -2982,7 +3006,7 @@
       <c r="AI25" s="15"/>
       <c r="AJ25" s="12"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
@@ -2996,22 +3020,22 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43" t="str">
+      <c r="K26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35" t="str">
         <f t="shared" ref="N26:AE26" si="19">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="O26" s="43" t="str">
+      <c r="O26" s="35" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P26" s="43" t="str">
+      <c r="P26" s="35" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -3063,11 +3087,11 @@
         <f t="shared" si="19"/>
         <v>X</v>
       </c>
-      <c r="AC26" s="39" t="str">
+      <c r="AC26" s="15" t="str">
         <f t="shared" si="19"/>
         <v>X</v>
       </c>
-      <c r="AD26" s="39" t="str">
+      <c r="AD26" s="15" t="str">
         <f t="shared" si="19"/>
         <v>X</v>
       </c>
@@ -3081,7 +3105,7 @@
       <c r="AI26" s="15"/>
       <c r="AJ26" s="12"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
@@ -3094,24 +3118,24 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43" t="str">
+      <c r="K27" s="35"/>
+      <c r="L27" s="35" t="str">
         <f t="shared" ref="L27:AE27" si="20">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M27" s="43" t="str">
+      <c r="M27" s="35" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="43" t="str">
+      <c r="N27" s="35" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="O27" s="43" t="str">
+      <c r="O27" s="35" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="P27" s="43" t="str">
+      <c r="P27" s="35" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -3163,11 +3187,11 @@
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="AC27" s="39" t="str">
+      <c r="AC27" s="15" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="AD27" s="39" t="str">
+      <c r="AD27" s="15" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
@@ -3181,7 +3205,7 @@
       <c r="AI27" s="15"/>
       <c r="AJ27" s="12"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
@@ -3194,20 +3218,20 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="41" t="s">
+      <c r="K28" s="35"/>
+      <c r="L28" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="33" t="s">
         <v>53</v>
       </c>
       <c r="Q28" s="13" t="str">
@@ -3225,7 +3249,7 @@
       <c r="T28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U28" s="53" t="str">
+      <c r="U28" s="45" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
@@ -3257,11 +3281,11 @@
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
-      <c r="AC28" s="39" t="str">
+      <c r="AC28" s="15" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
-      <c r="AD28" s="39" t="str">
+      <c r="AD28" s="15" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
@@ -3275,7 +3299,7 @@
       <c r="AI28" s="15"/>
       <c r="AJ28" s="12"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
@@ -3288,15 +3312,15 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43" t="str">
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35" t="str">
         <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
       <c r="Q29" s="15" t="str">
         <f t="shared" ref="Q29:AB29" si="22">IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -3345,11 +3369,11 @@
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
-      <c r="AC29" s="39" t="str">
+      <c r="AC29" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD29" s="39" t="str">
+      <c r="AD29" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3360,7 +3384,7 @@
       <c r="AI29" s="15"/>
       <c r="AJ29" s="12"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
@@ -3373,32 +3397,32 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="63"/>
-      <c r="AB30" s="63" t="str">
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC30" s="39" t="str">
+      <c r="AC30" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD30" s="39" t="str">
+      <c r="AD30" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3409,7 +3433,7 @@
       <c r="AI30" s="15"/>
       <c r="AJ30" s="12"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
@@ -3422,32 +3446,32 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63" t="str">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC31" s="39" t="str">
+      <c r="AC31" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD31" s="39" t="str">
+      <c r="AD31" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3458,7 +3482,7 @@
       <c r="AI31" s="15"/>
       <c r="AJ31" s="12"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
         <v>22</v>
       </c>
@@ -3472,19 +3496,19 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="43" t="str">
+      <c r="K32" s="36"/>
+      <c r="L32" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="35" t="str">
         <f t="shared" ref="O32:AE32" si="23">IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="P32" s="43" t="str">
+      <c r="P32" s="35" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -3504,7 +3528,7 @@
         <f t="shared" si="23"/>
         <v>X</v>
       </c>
-      <c r="U32" s="39" t="str">
+      <c r="U32" s="15" t="str">
         <f t="shared" si="23"/>
         <v>X</v>
       </c>
@@ -3536,11 +3560,11 @@
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC32" s="39" t="str">
+      <c r="AC32" s="15" t="str">
         <f t="shared" si="23"/>
         <v>X</v>
       </c>
-      <c r="AD32" s="39" t="str">
+      <c r="AD32" s="15" t="str">
         <f t="shared" si="23"/>
         <v>X</v>
       </c>
@@ -3554,7 +3578,7 @@
       <c r="AI32" s="15"/>
       <c r="AJ32" s="12"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>25</v>
       </c>
@@ -3568,19 +3592,19 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="43" t="str">
+      <c r="K33" s="36"/>
+      <c r="L33" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="35" t="str">
         <f t="shared" ref="O33:AE33" si="24">IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="P33" s="43" t="str">
+      <c r="P33" s="35" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -3600,7 +3624,7 @@
         <f t="shared" si="24"/>
         <v>X</v>
       </c>
-      <c r="U33" s="39" t="str">
+      <c r="U33" s="15" t="str">
         <f t="shared" si="24"/>
         <v>X</v>
       </c>
@@ -3632,11 +3656,11 @@
         <f t="shared" si="24"/>
         <v>X</v>
       </c>
-      <c r="AC33" s="39" t="str">
+      <c r="AC33" s="15" t="str">
         <f t="shared" si="24"/>
         <v>X</v>
       </c>
-      <c r="AD33" s="39" t="str">
+      <c r="AD33" s="15" t="str">
         <f t="shared" si="24"/>
         <v>X</v>
       </c>
@@ -3650,7 +3674,7 @@
       <c r="AI33" s="15"/>
       <c r="AJ33" s="12"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -3663,24 +3687,24 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43" t="str">
+      <c r="K34" s="35"/>
+      <c r="L34" s="35" t="str">
         <f t="shared" ref="L34:AE34" si="25">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M34" s="43" t="str">
+      <c r="M34" s="35" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="N34" s="43" t="str">
+      <c r="N34" s="35" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O34" s="43" t="str">
+      <c r="O34" s="35" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="P34" s="43" t="str">
+      <c r="P34" s="35" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -3700,7 +3724,7 @@
         <f t="shared" si="25"/>
         <v>X</v>
       </c>
-      <c r="U34" s="39" t="str">
+      <c r="U34" s="15" t="str">
         <f t="shared" si="25"/>
         <v>X</v>
       </c>
@@ -3732,11 +3756,11 @@
         <f t="shared" si="25"/>
         <v>X</v>
       </c>
-      <c r="AC34" s="39" t="str">
+      <c r="AC34" s="15" t="str">
         <f t="shared" si="25"/>
         <v>X</v>
       </c>
-      <c r="AD34" s="39" t="str">
+      <c r="AD34" s="15" t="str">
         <f t="shared" si="25"/>
         <v>X</v>
       </c>
@@ -3750,7 +3774,7 @@
       <c r="AI34" s="15"/>
       <c r="AJ34" s="12"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>55</v>
       </c>
@@ -3763,22 +3787,22 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43" t="str">
+      <c r="K35" s="35"/>
+      <c r="L35" s="35" t="str">
         <f t="shared" ref="L35:AE35" si="26">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M35" s="43" t="str">
+      <c r="M35" s="35" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="N35" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="41" t="s">
+      <c r="N35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" s="33" t="s">
         <v>53</v>
       </c>
       <c r="Q35" s="13" t="s">
@@ -3793,7 +3817,7 @@
       <c r="T35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="13" t="str">
         <f t="shared" si="26"/>
         <v>X</v>
       </c>
@@ -3825,11 +3849,11 @@
         <f t="shared" si="26"/>
         <v>X</v>
       </c>
-      <c r="AC35" s="39" t="str">
+      <c r="AC35" s="15" t="str">
         <f t="shared" si="26"/>
         <v>X</v>
       </c>
-      <c r="AD35" s="39" t="str">
+      <c r="AD35" s="15" t="str">
         <f t="shared" si="26"/>
         <v>X</v>
       </c>
@@ -3843,7 +3867,7 @@
       <c r="AI35" s="15"/>
       <c r="AJ35" s="12"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>70</v>
       </c>
@@ -3856,32 +3880,32 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63" t="str">
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC36" s="39" t="str">
+      <c r="AC36" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD36" s="39" t="str">
+      <c r="AD36" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3892,7 +3916,7 @@
       <c r="AI36" s="15"/>
       <c r="AJ36" s="12"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>71</v>
       </c>
@@ -3905,32 +3929,32 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63" t="str">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC37" s="39" t="str">
+      <c r="AC37" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD37" s="39" t="str">
+      <c r="AD37" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3941,7 +3965,7 @@
       <c r="AI37" s="15"/>
       <c r="AJ37" s="12"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -3954,32 +3978,32 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63" t="str">
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC38" s="39" t="str">
+      <c r="AC38" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD38" s="39" t="str">
+      <c r="AD38" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3990,7 +4014,7 @@
       <c r="AI38" s="15"/>
       <c r="AJ38" s="12"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>23</v>
       </c>
@@ -4004,22 +4028,22 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N39" s="43" t="str">
+      <c r="K39" s="34"/>
+      <c r="L39" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" s="35" t="str">
         <f t="shared" ref="N39:AE39" si="27">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="O39" s="43" t="str">
+      <c r="O39" s="35" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="P39" s="43" t="str">
+      <c r="P39" s="35" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -4039,7 +4063,7 @@
         <f t="shared" si="27"/>
         <v>X</v>
       </c>
-      <c r="U39" s="39" t="str">
+      <c r="U39" s="15" t="str">
         <f t="shared" si="27"/>
         <v>X</v>
       </c>
@@ -4071,11 +4095,11 @@
         <f t="shared" si="27"/>
         <v>X</v>
       </c>
-      <c r="AC39" s="39" t="str">
+      <c r="AC39" s="15" t="str">
         <f t="shared" si="27"/>
         <v>X</v>
       </c>
-      <c r="AD39" s="39" t="str">
+      <c r="AD39" s="15" t="str">
         <f t="shared" si="27"/>
         <v>X</v>
       </c>
@@ -4089,7 +4113,7 @@
       <c r="AI39" s="15"/>
       <c r="AJ39" s="12"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
@@ -4103,22 +4127,22 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N40" s="43" t="str">
+      <c r="K40" s="34"/>
+      <c r="L40" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" s="35" t="str">
         <f t="shared" ref="N40:AE40" si="28">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="O40" s="43" t="str">
+      <c r="O40" s="35" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="P40" s="43" t="str">
+      <c r="P40" s="35" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -4138,7 +4162,7 @@
         <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="U40" s="39" t="str">
+      <c r="U40" s="15" t="str">
         <f t="shared" si="28"/>
         <v>X</v>
       </c>
@@ -4170,11 +4194,11 @@
         <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="AC40" s="39" t="str">
+      <c r="AC40" s="15" t="str">
         <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="AD40" s="39" t="str">
+      <c r="AD40" s="15" t="str">
         <f t="shared" si="28"/>
         <v>X</v>
       </c>
@@ -4188,7 +4212,7 @@
       <c r="AI40" s="15"/>
       <c r="AJ40" s="12"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>32</v>
       </c>
@@ -4201,24 +4225,24 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43" t="str">
+      <c r="K41" s="35"/>
+      <c r="L41" s="35" t="str">
         <f t="shared" ref="L41:AE41" si="29">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M41" s="43" t="str">
+      <c r="M41" s="35" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="N41" s="43" t="str">
+      <c r="N41" s="35" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="O41" s="43" t="str">
+      <c r="O41" s="35" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="P41" s="43" t="str">
+      <c r="P41" s="35" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -4238,7 +4262,7 @@
         <f t="shared" si="29"/>
         <v>X</v>
       </c>
-      <c r="U41" s="39" t="str">
+      <c r="U41" s="15" t="str">
         <f t="shared" si="29"/>
         <v>X</v>
       </c>
@@ -4270,11 +4294,11 @@
         <f t="shared" si="29"/>
         <v>X</v>
       </c>
-      <c r="AC41" s="39" t="str">
+      <c r="AC41" s="15" t="str">
         <f t="shared" si="29"/>
         <v>X</v>
       </c>
-      <c r="AD41" s="39" t="str">
+      <c r="AD41" s="15" t="str">
         <f t="shared" si="29"/>
         <v>X</v>
       </c>
@@ -4288,7 +4312,7 @@
       <c r="AI41" s="15"/>
       <c r="AJ41" s="12"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>56</v>
       </c>
@@ -4301,21 +4325,21 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43" t="str">
+      <c r="K42" s="35"/>
+      <c r="L42" s="35" t="str">
         <f t="shared" ref="L42:AE42" si="30">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="N42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" s="41" t="s">
+      <c r="M42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" s="33" t="s">
         <v>53</v>
       </c>
       <c r="Q42" s="13" t="str">
@@ -4334,7 +4358,7 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="U42" s="34" t="str">
+      <c r="U42" s="13" t="str">
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
@@ -4366,11 +4390,11 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="AC42" s="39" t="str">
+      <c r="AC42" s="15" t="str">
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="AD42" s="39" t="str">
+      <c r="AD42" s="15" t="str">
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
@@ -4384,7 +4408,7 @@
       <c r="AI42" s="15"/>
       <c r="AJ42" s="12"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
@@ -4397,32 +4421,32 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63"/>
-      <c r="Y43" s="63"/>
-      <c r="Z43" s="63"/>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="63" t="str">
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC43" s="39" t="str">
+      <c r="AC43" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD43" s="39" t="str">
+      <c r="AD43" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4433,7 +4457,7 @@
       <c r="AI43" s="15"/>
       <c r="AJ43" s="12"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>74</v>
       </c>
@@ -4446,32 +4470,32 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63" t="str">
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC44" s="39" t="str">
+      <c r="AC44" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD44" s="39" t="str">
+      <c r="AD44" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4482,7 +4506,7 @@
       <c r="AI44" s="15"/>
       <c r="AJ44" s="12"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>75</v>
       </c>
@@ -4495,32 +4519,32 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="63"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63" t="str">
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC45" s="39" t="str">
+      <c r="AC45" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD45" s="39" t="str">
+      <c r="AD45" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4531,7 +4555,7 @@
       <c r="AI45" s="15"/>
       <c r="AJ45" s="12"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>76</v>
       </c>
@@ -4545,22 +4569,22 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43" t="str">
+      <c r="K46" s="35"/>
+      <c r="L46" s="35" t="str">
         <f>IF(AND(L1&gt;$D$4,L1&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M46" s="43" t="str">
+      <c r="M46" s="35" t="str">
         <f t="shared" ref="M46:AB46" si="31">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N46" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" s="42" t="s">
+      <c r="N46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" s="34" t="s">
         <v>53</v>
       </c>
       <c r="Q46" s="22" t="str">
@@ -4571,9 +4595,9 @@
         <f t="shared" si="31"/>
         <v>X</v>
       </c>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
       <c r="V46" s="15" t="str">
         <f t="shared" si="31"/>
         <v>X</v>
@@ -4602,11 +4626,11 @@
         <f t="shared" si="31"/>
         <v>X</v>
       </c>
-      <c r="AC46" s="39" t="str">
+      <c r="AC46" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD46" s="39" t="str">
+      <c r="AD46" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4620,34 +4644,33 @@
       <c r="AI46" s="15"/>
       <c r="AJ46" s="12"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43" t="str">
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35" t="str">
         <f t="shared" ref="M47:AB47" si="32">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N47" s="45" t="str">
+      <c r="N47" s="37" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="O47" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" s="41" t="s">
+      <c r="O47" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" s="33" t="s">
         <v>53</v>
       </c>
       <c r="Q47" s="13" t="str">
@@ -4698,11 +4721,11 @@
         <f t="shared" si="32"/>
         <v>X</v>
       </c>
-      <c r="AC47" s="39" t="str">
+      <c r="AC47" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD47" s="39" t="str">
+      <c r="AD47" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4713,26 +4736,25 @@
       <c r="AI47" s="15"/>
       <c r="AJ47" s="12"/>
     </row>
-    <row r="48" spans="2:36" ht="29" x14ac:dyDescent="0.35">
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
       <c r="Q48" s="15" t="str">
         <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -4745,23 +4767,23 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="63"/>
-      <c r="Y48" s="63"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="63" t="str">
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC48" s="39" t="str">
+      <c r="AC48" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD48" s="39" t="str">
+      <c r="AD48" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4772,26 +4794,25 @@
       <c r="AI48" s="15"/>
       <c r="AJ48" s="12"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B49" s="26" t="s">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
       <c r="Q49" s="15" t="str">
         <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -4804,23 +4825,23 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63" t="str">
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC49" s="39" t="str">
+      <c r="AC49" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD49" s="39" t="str">
+      <c r="AD49" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4831,7 +4852,7 @@
       <c r="AI49" s="15"/>
       <c r="AJ49" s="12"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>58</v>
       </c>
@@ -4844,20 +4865,20 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43" t="str">
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35" t="str">
         <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N50" s="43" t="str">
+      <c r="N50" s="35" t="str">
         <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="O50" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" s="41" t="s">
+      <c r="O50" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" s="33" t="s">
         <v>53</v>
       </c>
       <c r="Q50" s="13" t="str">
@@ -4908,11 +4929,11 @@
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC50" s="39" t="str">
+      <c r="AC50" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD50" s="39" t="str">
+      <c r="AD50" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4923,11 +4944,11 @@
       <c r="AI50" s="15"/>
       <c r="AJ50" s="12"/>
     </row>
-    <row r="51" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="46" t="s">
         <v>66</v>
       </c>
       <c r="E51" s="1"/>
@@ -4936,12 +4957,12 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
       <c r="Q51" s="15" t="str">
         <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -4954,23 +4975,23 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="63"/>
-      <c r="Y51" s="63"/>
-      <c r="Z51" s="63"/>
-      <c r="AA51" s="63"/>
-      <c r="AB51" s="63" t="str">
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC51" s="39" t="str">
+      <c r="AC51" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD51" s="39" t="str">
+      <c r="AD51" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4981,11 +5002,11 @@
       <c r="AI51" s="15"/>
       <c r="AJ51" s="12"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E52" s="1"/>
@@ -4994,12 +5015,12 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
       <c r="Q52" s="15" t="str">
         <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -5012,20 +5033,20 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="63"/>
-      <c r="Y52" s="63"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="63"/>
-      <c r="AC52" s="39" t="str">
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD52" s="39" t="str">
+      <c r="AD52" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5036,7 +5057,7 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="12"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>59</v>
       </c>
@@ -5049,20 +5070,20 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43" t="str">
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35" t="str">
         <f t="shared" ref="M53:AB53" si="34">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N53" s="43" t="str">
+      <c r="N53" s="35" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="O53" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" s="41" t="s">
+      <c r="O53" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" s="33" t="s">
         <v>53</v>
       </c>
       <c r="Q53" s="13" t="str">
@@ -5113,11 +5134,11 @@
         <f t="shared" si="34"/>
         <v>X</v>
       </c>
-      <c r="AC53" s="39" t="str">
+      <c r="AC53" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD53" s="39" t="str">
+      <c r="AD53" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5128,11 +5149,11 @@
       <c r="AI53" s="15"/>
       <c r="AJ53" s="12"/>
     </row>
-    <row r="54" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="46" t="s">
         <v>66</v>
       </c>
       <c r="E54" s="1"/>
@@ -5141,12 +5162,12 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
       <c r="Q54" s="15" t="str">
         <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -5159,23 +5180,23 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="63"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="63" t="str">
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC54" s="39" t="str">
+      <c r="AC54" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD54" s="39" t="str">
+      <c r="AD54" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5186,11 +5207,11 @@
       <c r="AI54" s="15"/>
       <c r="AJ54" s="12"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="1"/>
@@ -5199,21 +5220,21 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43" t="str">
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35" t="str">
         <f t="shared" ref="M55:AA55" si="35">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N55" s="43" t="str">
+      <c r="N55" s="35" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="O55" s="43" t="str">
+      <c r="O55" s="35" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="P55" s="43" t="str">
+      <c r="P55" s="35" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -5265,11 +5286,11 @@
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC55" s="39" t="str">
+      <c r="AC55" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD55" s="39" t="str">
+      <c r="AD55" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5280,11 +5301,11 @@
       <c r="AI55" s="15"/>
       <c r="AJ55" s="12"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="1"/>
@@ -5293,21 +5314,21 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43" t="str">
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35" t="str">
         <f t="shared" ref="M56:AB56" si="36">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N56" s="43" t="str">
+      <c r="N56" s="35" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="O56" s="43" t="str">
+      <c r="O56" s="35" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="P56" s="43" t="str">
+      <c r="P56" s="35" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -5359,11 +5380,11 @@
         <f t="shared" si="36"/>
         <v>X</v>
       </c>
-      <c r="AC56" s="39" t="str">
+      <c r="AC56" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD56" s="39" t="str">
+      <c r="AD56" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5374,11 +5395,11 @@
       <c r="AI56" s="15"/>
       <c r="AJ56" s="12"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E57" s="1"/>
@@ -5387,21 +5408,21 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43" t="str">
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35" t="str">
         <f t="shared" ref="M57:AB57" si="37">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N57" s="43" t="str">
+      <c r="N57" s="35" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="O57" s="43" t="str">
+      <c r="O57" s="35" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="P57" s="43" t="str">
+      <c r="P57" s="35" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -5453,11 +5474,11 @@
         <f t="shared" si="37"/>
         <v>X</v>
       </c>
-      <c r="AC57" s="39" t="str">
+      <c r="AC57" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD57" s="39" t="str">
+      <c r="AD57" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5468,11 +5489,11 @@
       <c r="AI57" s="15"/>
       <c r="AJ57" s="12"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="1"/>
@@ -5481,32 +5502,32 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="63"/>
-      <c r="V58" s="63"/>
-      <c r="W58" s="63"/>
-      <c r="X58" s="63"/>
-      <c r="Y58" s="63"/>
-      <c r="Z58" s="63"/>
-      <c r="AA58" s="63"/>
-      <c r="AB58" s="63" t="str">
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC58" s="39" t="str">
+      <c r="AC58" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD58" s="39" t="str">
+      <c r="AD58" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5517,11 +5538,11 @@
       <c r="AI58" s="15"/>
       <c r="AJ58" s="12"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="1"/>
@@ -5530,77 +5551,77 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43" t="str">
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35" t="str">
         <f t="shared" ref="M59:AA59" si="38">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N59" s="43" t="str">
+      <c r="N59" s="35" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="O59" s="43" t="str">
+      <c r="O59" s="35" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P59" s="43" t="str">
+      <c r="P59" s="35" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="Q59" s="63" t="str">
+      <c r="Q59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="R59" s="63" t="str">
+      <c r="R59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="S59" s="63" t="str">
+      <c r="S59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="T59" s="63" t="str">
+      <c r="T59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="U59" s="63" t="str">
+      <c r="U59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="V59" s="63" t="str">
+      <c r="V59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="W59" s="63" t="str">
+      <c r="W59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="X59" s="63" t="str">
+      <c r="X59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="Y59" s="63" t="str">
+      <c r="Y59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="Z59" s="63" t="str">
+      <c r="Z59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="AA59" s="63" t="str">
+      <c r="AA59" s="54" t="str">
         <f t="shared" si="38"/>
         <v>X</v>
       </c>
-      <c r="AB59" s="63" t="str">
+      <c r="AB59" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC59" s="39" t="str">
+      <c r="AC59" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD59" s="39" t="str">
+      <c r="AD59" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5611,11 +5632,11 @@
       <c r="AI59" s="15"/>
       <c r="AJ59" s="12"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E60" s="1"/>
@@ -5624,32 +5645,32 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="63"/>
-      <c r="V60" s="63"/>
-      <c r="W60" s="63"/>
-      <c r="X60" s="63"/>
-      <c r="Y60" s="63"/>
-      <c r="Z60" s="63"/>
-      <c r="AA60" s="63"/>
-      <c r="AB60" s="63" t="str">
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC60" s="39" t="str">
+      <c r="AC60" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD60" s="39" t="str">
+      <c r="AD60" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5660,11 +5681,11 @@
       <c r="AI60" s="15"/>
       <c r="AJ60" s="12"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="1"/>
@@ -5673,32 +5694,32 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63"/>
-      <c r="X61" s="63"/>
-      <c r="Y61" s="63"/>
-      <c r="Z61" s="63"/>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="63" t="str">
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC61" s="39" t="str">
+      <c r="AC61" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD61" s="39" t="str">
+      <c r="AD61" s="15" t="str">
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5709,121 +5730,121 @@
       <c r="AI61" s="15"/>
       <c r="AJ61" s="12"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A62" s="57" t="s">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="57">
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="48">
         <v>4</v>
       </c>
-      <c r="E62" s="59">
+      <c r="E62" s="50">
         <f>F24</f>
         <v>45795</v>
       </c>
-      <c r="F62" s="59">
+      <c r="F62" s="50">
         <f>E62+D62*7</f>
         <v>45823</v>
       </c>
-      <c r="G62" s="60" t="str">
-        <f>IF(AND(G2&gt;$D$4+$D$24,G2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="H62" s="60" t="str">
-        <f>IF(AND(H2&gt;$D$4+$D$24,H2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="I62" s="60" t="str">
-        <f>IF(AND(I2&gt;$D$4+$D$24,I2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="J62" s="60" t="str">
-        <f>IF(AND(J2&gt;$D$4+$D$24,J2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="K62" s="60" t="str">
-        <f>IF(AND(K2&gt;$D$4+$D$24,K2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="L62" s="60" t="str">
-        <f>IF(AND(L2&gt;$D$4+$D$24,L2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="M62" s="60" t="str">
-        <f>IF(AND(M2&gt;$D$4+$D$24,M2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="N62" s="60"/>
-      <c r="O62" s="60" t="str">
-        <f>IF(AND(O2&gt;$D$4+$D$24,O2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="P62" s="60" t="str">
-        <f>IF(AND(P2&gt;$D$4+$D$24,P2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="60" t="str">
-        <f>IF(AND(Q2&gt;$D$4+$D$24,Q2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="R62" s="60" t="str">
-        <f>IF(AND(R2&gt;$D$4+$D$24,R2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="S62" s="60" t="str">
-        <f>IF(AND(S2&gt;$D$4+$D$24,S2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="T62" s="60" t="str">
-        <f>IF(AND(T2&gt;$D$4+$D$24,T2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="U62" s="60" t="str">
-        <f>IF(AND(U2&gt;$D$4+$D$24,U2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="V62" s="60" t="str">
-        <f>IF(AND(V2&gt;$D$4+$D$24,V2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="W62" s="60" t="str">
-        <f>IF(AND(W2&gt;$D$4+$D$24,W2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="X62" s="60" t="str">
-        <f>IF(AND(X2&gt;$D$4+$D$24,X2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="Y62" s="60" t="str">
-        <f>IF(AND(Y2&gt;$D$4+$D$24,Y2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="60" t="str">
-        <f>IF(AND(Z2&gt;$D$4+$D$24,Z2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AA62" s="60" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB62" s="60" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC62" s="60"/>
-      <c r="AD62" s="60"/>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="60" t="str">
+      <c r="G62" s="51" t="str">
+        <f t="shared" ref="G62:M62" si="39">IF(AND(G2&gt;$D$4+$D$24,G2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="H62" s="51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I62" s="51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J62" s="51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K62" s="51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L62" s="51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M62" s="51" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51" t="str">
+        <f t="shared" ref="O62:AB62" si="40">IF(AND(O2&gt;$D$4+$D$24,O2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="P62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="Q62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="R62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="S62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="T62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="U62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="W62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="X62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="Y62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="Z62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AA62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AB62" s="51" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="51"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="51" t="str">
         <f>IF(AND(AI2&gt;$D$4+$D$24,AI2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
-      <c r="AJ62" s="60"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AJ62" s="51"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>92</v>
       </c>
@@ -5851,41 +5872,41 @@
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
       <c r="AA63" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" ref="AA63:AH63" si="41">IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AB63" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AC63" s="17" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AD63" s="17" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE63" s="17" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF63" s="17" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG63" s="17" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AH63" s="17" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AE63" s="56" t="str">
+        <f t="shared" si="41"/>
+        <v>X</v>
+      </c>
+      <c r="AF63" s="56" t="str">
+        <f t="shared" si="41"/>
+        <v>X</v>
+      </c>
+      <c r="AG63" s="56" t="str">
+        <f t="shared" si="41"/>
+        <v>X</v>
+      </c>
+      <c r="AH63" s="56" t="str">
+        <f t="shared" si="41"/>
         <v>X</v>
       </c>
       <c r="AI63" s="17"/>
       <c r="AJ63" s="12"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>93</v>
       </c>
@@ -5916,14 +5937,26 @@
       <c r="AB64" s="17"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="17"/>
-      <c r="AF64" s="17"/>
-      <c r="AG64" s="17"/>
-      <c r="AH64" s="17"/>
+      <c r="AE64" s="56" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF64" s="56" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG64" s="56" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH64" s="56" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AI64" s="17"/>
       <c r="AJ64" s="12"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>94</v>
       </c>
@@ -5954,14 +5987,26 @@
       <c r="AB65" s="17"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="17"/>
-      <c r="AF65" s="17"/>
-      <c r="AG65" s="17"/>
-      <c r="AH65" s="17"/>
+      <c r="AE65" s="56" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF65" s="56" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG65" s="56" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH65" s="56" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AI65" s="17"/>
       <c r="AJ65" s="12"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>84</v>
       </c>
@@ -5992,14 +6037,26 @@
       <c r="AB66" s="17"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="17"/>
-      <c r="AF66" s="17"/>
-      <c r="AG66" s="17"/>
-      <c r="AH66" s="17"/>
+      <c r="AE66" s="56" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF66" s="56" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG66" s="56" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH66" s="56" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AI66" s="17"/>
       <c r="AJ66" s="12"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>85</v>
       </c>
@@ -6028,19 +6085,28 @@
       <c r="Z67" s="17"/>
       <c r="AA67" s="17"/>
       <c r="AB67" s="17"/>
-      <c r="AC67" s="65"/>
-      <c r="AD67" s="65"/>
-      <c r="AE67" s="64"/>
-      <c r="AF67" s="64"/>
-      <c r="AG67" s="64"/>
-      <c r="AH67" s="65" t="str">
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="57" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF67" s="57" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG67" s="57" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH67" s="56" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI67" s="17"/>
       <c r="AJ67" s="12"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
@@ -6069,19 +6135,28 @@
       <c r="Z68" s="17"/>
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
-      <c r="AC68" s="65"/>
-      <c r="AD68" s="65"/>
-      <c r="AE68" s="64"/>
-      <c r="AF68" s="64"/>
-      <c r="AG68" s="64"/>
-      <c r="AH68" s="65" t="str">
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="57" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF68" s="57" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG68" s="57" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH68" s="56" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI68" s="17"/>
       <c r="AJ68" s="12"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>89</v>
       </c>
@@ -6110,19 +6185,28 @@
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
       <c r="AB69" s="17"/>
-      <c r="AC69" s="65"/>
-      <c r="AD69" s="65"/>
-      <c r="AE69" s="64"/>
-      <c r="AF69" s="64"/>
-      <c r="AG69" s="64"/>
-      <c r="AH69" s="65" t="str">
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="57" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF69" s="57" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG69" s="57" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH69" s="56" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI69" s="17"/>
       <c r="AJ69" s="12"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>87</v>
       </c>
@@ -6151,19 +6235,28 @@
       <c r="Z70" s="17"/>
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
-      <c r="AC70" s="65"/>
-      <c r="AD70" s="65"/>
-      <c r="AE70" s="64"/>
-      <c r="AF70" s="64"/>
-      <c r="AG70" s="64"/>
-      <c r="AH70" s="65" t="str">
+      <c r="AC70" s="17"/>
+      <c r="AD70" s="17"/>
+      <c r="AE70" s="57" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF70" s="57" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG70" s="57" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH70" s="56" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI70" s="17"/>
       <c r="AJ70" s="12"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>88</v>
       </c>
@@ -6192,19 +6285,28 @@
       <c r="Z71" s="17"/>
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
-      <c r="AC71" s="65"/>
-      <c r="AD71" s="65"/>
-      <c r="AE71" s="64"/>
-      <c r="AF71" s="64"/>
-      <c r="AG71" s="64"/>
-      <c r="AH71" s="65" t="str">
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="57" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF71" s="57" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG71" s="57" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH71" s="56" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI71" s="17"/>
       <c r="AJ71" s="12"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>90</v>
       </c>
@@ -6232,41 +6334,41 @@
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
       <c r="AA72" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" ref="AA72:AH72" si="42">IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AB72" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC72" s="17" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AD72" s="17" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE72" s="17" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF72" s="17" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG72" s="17" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AH72" s="65" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AE72" s="56" t="str">
+        <f t="shared" si="42"/>
+        <v>X</v>
+      </c>
+      <c r="AF72" s="56" t="str">
+        <f t="shared" si="42"/>
+        <v>X</v>
+      </c>
+      <c r="AG72" s="56" t="str">
+        <f t="shared" si="42"/>
+        <v>X</v>
+      </c>
+      <c r="AH72" s="56" t="str">
+        <f t="shared" si="42"/>
         <v>X</v>
       </c>
       <c r="AI72" s="17"/>
       <c r="AJ72" s="12"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>91</v>
       </c>
@@ -6294,42 +6396,44 @@
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
       <c r="AA73" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" ref="AA73:AH73" si="43">IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AB73" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AC73" s="17" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD73" s="17" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE73" s="17" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF73" s="17" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG73" s="17" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AH73" s="17" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AE73" s="56" t="str">
+        <f t="shared" si="43"/>
+        <v>X</v>
+      </c>
+      <c r="AF73" s="56" t="str">
+        <f t="shared" si="43"/>
+        <v>X</v>
+      </c>
+      <c r="AG73" s="56" t="str">
+        <f t="shared" si="43"/>
+        <v>X</v>
+      </c>
+      <c r="AH73" s="56" t="str">
+        <f t="shared" si="43"/>
         <v>X</v>
       </c>
       <c r="AI73" s="17"/>
       <c r="AJ73" s="12"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B74" s="8"/>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="C74" s="8"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6361,16 +6465,16 @@
         <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
-      <c r="AC74" s="65"/>
-      <c r="AD74" s="65"/>
-      <c r="AE74" s="65"/>
-      <c r="AF74" s="65"/>
-      <c r="AG74" s="65"/>
-      <c r="AH74" s="65"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
       <c r="AI74" s="17"/>
       <c r="AJ74" s="12"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="E75" s="1"/>
@@ -6403,16 +6507,16 @@
         <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
-      <c r="AC75" s="65"/>
-      <c r="AD75" s="65"/>
-      <c r="AE75" s="65"/>
-      <c r="AF75" s="65"/>
-      <c r="AG75" s="65"/>
-      <c r="AH75" s="65"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="17"/>
       <c r="AI75" s="17"/>
       <c r="AJ75" s="12"/>
     </row>
-    <row r="76" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -6447,182 +6551,182 @@
         <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
-      <c r="AC76" s="66"/>
-      <c r="AD76" s="66"/>
-      <c r="AE76" s="66"/>
-      <c r="AF76" s="66"/>
-      <c r="AG76" s="66"/>
-      <c r="AH76" s="66"/>
+      <c r="AC76" s="18"/>
+      <c r="AD76" s="18"/>
+      <c r="AE76" s="18"/>
+      <c r="AF76" s="18"/>
+      <c r="AG76" s="18"/>
+      <c r="AH76" s="18"/>
       <c r="AI76" s="18"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A77" s="57" t="s">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="57">
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="48">
         <v>1</v>
       </c>
-      <c r="E77" s="59">
+      <c r="E77" s="50">
         <f>F62</f>
         <v>45823</v>
       </c>
-      <c r="F77" s="59">
+      <c r="F77" s="50">
         <f>E77+D77*7</f>
         <v>45830</v>
       </c>
-      <c r="G77" s="60" t="str">
-        <f>IF(AND(G2&gt;$D$4+$D$24+$D$62,G2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="H77" s="60" t="str">
-        <f>IF(AND(H2&gt;$D$4+$D$24+$D$62,H2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="I77" s="60" t="str">
-        <f>IF(AND(I2&gt;$D$4+$D$24+$D$62,I2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="J77" s="60" t="str">
-        <f>IF(AND(J2&gt;$D$4+$D$24+$D$62,J2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="K77" s="60" t="str">
-        <f>IF(AND(K2&gt;$D$4+$D$24+$D$62,K2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="L77" s="60" t="str">
-        <f>IF(AND(L2&gt;$D$4+$D$24+$D$62,L2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="M77" s="60" t="str">
-        <f>IF(AND(M2&gt;$D$4+$D$24+$D$62,M2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="N77" s="60" t="str">
-        <f>IF(AND(N2&gt;$D$4+$D$24+$D$62,N2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="O77" s="60" t="str">
-        <f>IF(AND(O2&gt;$D$4+$D$24+$D$62,O2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="P77" s="60" t="str">
-        <f>IF(AND(P2&gt;$D$4+$D$24+$D$62,P2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q77" s="60" t="str">
-        <f>IF(AND(Q2&gt;$D$4+$D$24+$D$62,Q2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="R77" s="60" t="str">
-        <f>IF(AND(R2&gt;$D$4+$D$24+$D$62,R2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="S77" s="60" t="str">
-        <f>IF(AND(S2&gt;$D$4+$D$24+$D$62,S2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="T77" s="60" t="str">
-        <f>IF(AND(T2&gt;$D$4+$D$24+$D$62,T2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="U77" s="60" t="str">
-        <f>IF(AND(U2&gt;$D$4+$D$24+$D$62,U2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="V77" s="60" t="str">
-        <f>IF(AND(V2&gt;$D$4+$D$24+$D$62,V2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="W77" s="60" t="str">
-        <f>IF(AND(W2&gt;$D$4+$D$24+$D$62,W2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="X77" s="60" t="str">
-        <f>IF(AND(X2&gt;$D$4+$D$24+$D$62,X2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="Y77" s="60" t="str">
-        <f>IF(AND(Y2&gt;$D$4+$D$24+$D$62,Y2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="Z77" s="60" t="str">
-        <f>IF(AND(Z2&gt;$D$4+$D$24+$D$62,Z2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AA77" s="60" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24+$D$62,AA2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB77" s="60" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24+$D$62,AB2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC77" s="60" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24+$D$62,AC2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AD77" s="60" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24+$D$62,AD2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE77" s="60" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24+$D$62,AE2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AF77" s="60" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24+$D$62,AF2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AG77" s="60" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24+$D$62,AG2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AH77" s="60"/>
-      <c r="AI77" s="60"/>
-      <c r="AJ77" s="56"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="G77" s="51" t="str">
+        <f t="shared" ref="G77:AG77" si="44">IF(AND(G2&gt;$D$4+$D$24+$D$62,G2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="H77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="O77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="P77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="Q77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="R77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="S77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="T77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="U77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="V77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="W77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="X77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="Y77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="Z77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AA77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AB77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AC77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AD77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AE77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AF77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AG77" s="51" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="51"/>
+      <c r="AJ77" s="47"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
-      <c r="AI78" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ78" s="61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AI78" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ78" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
@@ -6631,24 +6735,24 @@
     <mergeCell ref="G1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G16:AI23 G15:N15 P15:AI15 G5:AI14 Q4:AI4">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",G4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:AI61 G32:J33 G25:AI27 G28:L28 N28:AI28 G29:AI31 O32:AI33 L32:M33 G24:P24 AB24:AI24">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X">
+  <conditionalFormatting sqref="G24:P24 AB24:AI24 G25:AI27 G28:L28 N28:AI28 G29:AI31 G32:J33 L32:M33 O32:AI33 G34:AI61">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:AI76">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:AI77">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI23">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6673,7 +6777,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:AI23 G15:N15 P15:AI15 G5:AI14 Q4:AI4</xm:sqref>
+          <xm:sqref>Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/01_WorkInProgress/01_PréProd/planning.xlsx
+++ b/01_WorkInProgress/01_PréProd/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9D942-D8BB-4C42-8340-3D953E3F21E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE4641-0913-4116-AD48-7B0B11DF92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
   <si>
     <t>Pré-production</t>
   </si>
@@ -495,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -627,20 +627,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -665,42 +670,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1033,12 +1003,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1016,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1024,7 @@
         <v>45836</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1032,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1070,10 +1040,10 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1112,87 +1082,87 @@
   </sheetPr>
   <dimension ref="A1:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR43" sqref="AR43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="13" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" customWidth="1"/>
+    <col min="8" max="9" width="4.1796875" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" customWidth="1"/>
+    <col min="11" max="13" width="3.54296875" customWidth="1"/>
+    <col min="14" max="14" width="3.1796875" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" customWidth="1"/>
+    <col min="16" max="16" width="3.453125" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" customWidth="1"/>
-    <col min="20" max="23" width="4.140625" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="27" width="3.7109375" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" customWidth="1"/>
-    <col min="29" max="29" width="3.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.140625" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" customWidth="1"/>
-    <col min="33" max="34" width="4.42578125" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" customWidth="1"/>
-    <col min="36" max="36" width="4.140625" customWidth="1"/>
-    <col min="37" max="37" width="32.85546875" customWidth="1"/>
+    <col min="18" max="18" width="3.54296875" customWidth="1"/>
+    <col min="19" max="19" width="4.453125" customWidth="1"/>
+    <col min="20" max="23" width="4.1796875" customWidth="1"/>
+    <col min="24" max="24" width="4.26953125" customWidth="1"/>
+    <col min="25" max="25" width="4.7265625" customWidth="1"/>
+    <col min="26" max="26" width="3.81640625" customWidth="1"/>
+    <col min="27" max="27" width="3.7265625" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" customWidth="1"/>
+    <col min="29" max="29" width="3.81640625" customWidth="1"/>
+    <col min="30" max="30" width="4.1796875" customWidth="1"/>
+    <col min="31" max="31" width="4.26953125" customWidth="1"/>
+    <col min="32" max="32" width="4.54296875" customWidth="1"/>
+    <col min="33" max="34" width="4.453125" customWidth="1"/>
+    <col min="35" max="35" width="4.7265625" customWidth="1"/>
+    <col min="36" max="36" width="4.1796875" customWidth="1"/>
+    <col min="37" max="37" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1">
         <f ca="1">WEEKNUM(TODAY())</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-    </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+    </row>
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="G2">
         <v>1</v>
       </c>
@@ -1281,7 +1251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -1416,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1491,7 @@
       </c>
       <c r="AJ4" s="51"/>
     </row>
-    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1556,7 @@
       <c r="AI5" s="11"/>
       <c r="AJ5" s="12"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1651,7 +1621,7 @@
       <c r="AI6" s="11"/>
       <c r="AJ6" s="12"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
@@ -1716,7 +1686,7 @@
       <c r="AI7" s="11"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
@@ -1781,7 +1751,7 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="12"/>
     </row>
-    <row r="9" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>42</v>
       </c>
@@ -1846,7 +1816,7 @@
       <c r="AI9" s="11"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +1889,7 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="12"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +1964,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="12"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
@@ -2069,7 +2039,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="12"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
@@ -2134,7 +2104,7 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="12"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2199,7 +2169,7 @@
       <c r="AI14" s="11"/>
       <c r="AJ14" s="12"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -2264,7 +2234,7 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="12"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
@@ -2328,7 +2298,7 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>51</v>
       </c>
@@ -2393,7 +2363,7 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="12"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2458,7 +2428,7 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="12"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
@@ -2525,16 +2495,16 @@
       <c r="AI19" s="11"/>
       <c r="AJ19" s="12"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B20" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="11" t="str">
         <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2569,17 +2539,13 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q20" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="34" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="U20" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -2596,7 +2562,7 @@
       <c r="AI20" s="11"/>
       <c r="AJ20" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
@@ -2665,7 +2631,7 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="12"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
@@ -2734,7 +2700,7 @@
       <c r="AI22" s="11"/>
       <c r="AJ22" s="12"/>
     </row>
-    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="41" t="s">
         <v>19</v>
@@ -2814,7 +2780,7 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>1</v>
       </c>
@@ -2907,7 +2873,7 @@
       </c>
       <c r="AJ24" s="51"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
         <v>21</v>
       </c>
@@ -3006,7 +2972,7 @@
       <c r="AI25" s="15"/>
       <c r="AJ25" s="12"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
@@ -3105,7 +3071,7 @@
       <c r="AI26" s="15"/>
       <c r="AJ26" s="12"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
@@ -3205,7 +3171,7 @@
       <c r="AI27" s="15"/>
       <c r="AJ27" s="12"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
@@ -3299,7 +3265,7 @@
       <c r="AI28" s="15"/>
       <c r="AJ28" s="12"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
@@ -3384,7 +3350,7 @@
       <c r="AI29" s="15"/>
       <c r="AJ29" s="12"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
@@ -3433,7 +3399,7 @@
       <c r="AI30" s="15"/>
       <c r="AJ30" s="12"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
@@ -3482,7 +3448,7 @@
       <c r="AI31" s="15"/>
       <c r="AJ31" s="12"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B32" s="19" t="s">
         <v>22</v>
       </c>
@@ -3578,7 +3544,7 @@
       <c r="AI32" s="15"/>
       <c r="AJ32" s="12"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
         <v>25</v>
       </c>
@@ -3674,7 +3640,7 @@
       <c r="AI33" s="15"/>
       <c r="AJ33" s="12"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -3774,7 +3740,7 @@
       <c r="AI34" s="15"/>
       <c r="AJ34" s="12"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>55</v>
       </c>
@@ -3867,7 +3833,7 @@
       <c r="AI35" s="15"/>
       <c r="AJ35" s="12"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>70</v>
       </c>
@@ -3916,7 +3882,7 @@
       <c r="AI36" s="15"/>
       <c r="AJ36" s="12"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>71</v>
       </c>
@@ -3965,7 +3931,7 @@
       <c r="AI37" s="15"/>
       <c r="AJ37" s="12"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -4014,7 +3980,7 @@
       <c r="AI38" s="15"/>
       <c r="AJ38" s="12"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B39" s="19" t="s">
         <v>23</v>
       </c>
@@ -4113,7 +4079,7 @@
       <c r="AI39" s="15"/>
       <c r="AJ39" s="12"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
@@ -4212,7 +4178,7 @@
       <c r="AI40" s="15"/>
       <c r="AJ40" s="12"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
         <v>32</v>
       </c>
@@ -4312,7 +4278,7 @@
       <c r="AI41" s="15"/>
       <c r="AJ41" s="12"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
         <v>56</v>
       </c>
@@ -4408,7 +4374,7 @@
       <c r="AI42" s="15"/>
       <c r="AJ42" s="12"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
@@ -4457,7 +4423,7 @@
       <c r="AI43" s="15"/>
       <c r="AJ43" s="12"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>74</v>
       </c>
@@ -4506,7 +4472,7 @@
       <c r="AI44" s="15"/>
       <c r="AJ44" s="12"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
         <v>75</v>
       </c>
@@ -4555,7 +4521,7 @@
       <c r="AI45" s="15"/>
       <c r="AJ45" s="12"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B46" s="19" t="s">
         <v>76</v>
       </c>
@@ -4644,7 +4610,7 @@
       <c r="AI46" s="15"/>
       <c r="AJ46" s="12"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>57</v>
       </c>
@@ -4736,7 +4702,7 @@
       <c r="AI47" s="15"/>
       <c r="AJ47" s="12"/>
     </row>
-    <row r="48" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:36" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>61</v>
       </c>
@@ -4794,7 +4760,7 @@
       <c r="AI48" s="15"/>
       <c r="AJ48" s="12"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
@@ -4852,7 +4818,7 @@
       <c r="AI49" s="15"/>
       <c r="AJ49" s="12"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
         <v>58</v>
       </c>
@@ -4944,7 +4910,7 @@
       <c r="AI50" s="15"/>
       <c r="AJ50" s="12"/>
     </row>
-    <row r="51" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
@@ -5002,7 +4968,7 @@
       <c r="AI51" s="15"/>
       <c r="AJ51" s="12"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
         <v>65</v>
       </c>
@@ -5057,7 +5023,7 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="12"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>59</v>
       </c>
@@ -5149,7 +5115,7 @@
       <c r="AI53" s="15"/>
       <c r="AJ53" s="12"/>
     </row>
-    <row r="54" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
         <v>64</v>
       </c>
@@ -5207,7 +5173,7 @@
       <c r="AI54" s="15"/>
       <c r="AJ54" s="12"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
@@ -5301,7 +5267,7 @@
       <c r="AI55" s="15"/>
       <c r="AJ55" s="12"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>77</v>
       </c>
@@ -5395,7 +5361,7 @@
       <c r="AI56" s="15"/>
       <c r="AJ56" s="12"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
         <v>78</v>
       </c>
@@ -5489,7 +5455,7 @@
       <c r="AI57" s="15"/>
       <c r="AJ57" s="12"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
         <v>79</v>
       </c>
@@ -5538,7 +5504,7 @@
       <c r="AI58" s="15"/>
       <c r="AJ58" s="12"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>82</v>
       </c>
@@ -5632,7 +5598,7 @@
       <c r="AI59" s="15"/>
       <c r="AJ59" s="12"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -5681,7 +5647,7 @@
       <c r="AI60" s="15"/>
       <c r="AJ60" s="12"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>81</v>
       </c>
@@ -5730,7 +5696,7 @@
       <c r="AI61" s="15"/>
       <c r="AJ61" s="12"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" s="48" t="s">
         <v>2</v>
       </c>
@@ -5844,7 +5810,7 @@
       </c>
       <c r="AJ62" s="51"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>92</v>
       </c>
@@ -5887,26 +5853,26 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AE63" s="56" t="str">
+      <c r="AE63" s="55" t="str">
         <f t="shared" si="41"/>
         <v>X</v>
       </c>
-      <c r="AF63" s="56" t="str">
+      <c r="AF63" s="55" t="str">
         <f t="shared" si="41"/>
         <v>X</v>
       </c>
-      <c r="AG63" s="56" t="str">
+      <c r="AG63" s="55" t="str">
         <f t="shared" si="41"/>
         <v>X</v>
       </c>
-      <c r="AH63" s="56" t="str">
+      <c r="AH63" s="55" t="str">
         <f t="shared" si="41"/>
         <v>X</v>
       </c>
       <c r="AI63" s="17"/>
       <c r="AJ63" s="12"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>93</v>
       </c>
@@ -5937,26 +5903,26 @@
       <c r="AB64" s="17"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="56" t="str">
+      <c r="AE64" s="55" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF64" s="56" t="str">
+      <c r="AF64" s="55" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG64" s="56" t="str">
+      <c r="AG64" s="55" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH64" s="56" t="str">
+      <c r="AH64" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI64" s="17"/>
       <c r="AJ64" s="12"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>94</v>
       </c>
@@ -5987,26 +5953,26 @@
       <c r="AB65" s="17"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="56" t="str">
+      <c r="AE65" s="55" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF65" s="56" t="str">
+      <c r="AF65" s="55" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG65" s="56" t="str">
+      <c r="AG65" s="55" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH65" s="56" t="str">
+      <c r="AH65" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI65" s="17"/>
       <c r="AJ65" s="12"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
         <v>84</v>
       </c>
@@ -6037,26 +6003,26 @@
       <c r="AB66" s="17"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="56" t="str">
+      <c r="AE66" s="55" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF66" s="56" t="str">
+      <c r="AF66" s="55" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG66" s="56" t="str">
+      <c r="AG66" s="55" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH66" s="56" t="str">
+      <c r="AH66" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI66" s="17"/>
       <c r="AJ66" s="12"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B67" s="8" t="s">
         <v>85</v>
       </c>
@@ -6087,26 +6053,26 @@
       <c r="AB67" s="17"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
-      <c r="AE67" s="57" t="str">
+      <c r="AE67" s="56" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF67" s="57" t="str">
+      <c r="AF67" s="56" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG67" s="57" t="str">
+      <c r="AG67" s="56" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH67" s="56" t="str">
+      <c r="AH67" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI67" s="17"/>
       <c r="AJ67" s="12"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
@@ -6137,26 +6103,26 @@
       <c r="AB68" s="17"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
-      <c r="AE68" s="57" t="str">
+      <c r="AE68" s="56" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF68" s="57" t="str">
+      <c r="AF68" s="56" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG68" s="57" t="str">
+      <c r="AG68" s="56" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH68" s="56" t="str">
+      <c r="AH68" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI68" s="17"/>
       <c r="AJ68" s="12"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B69" s="8" t="s">
         <v>89</v>
       </c>
@@ -6187,26 +6153,26 @@
       <c r="AB69" s="17"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
-      <c r="AE69" s="57" t="str">
+      <c r="AE69" s="56" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF69" s="57" t="str">
+      <c r="AF69" s="56" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG69" s="57" t="str">
+      <c r="AG69" s="56" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH69" s="56" t="str">
+      <c r="AH69" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI69" s="17"/>
       <c r="AJ69" s="12"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
         <v>87</v>
       </c>
@@ -6237,26 +6203,26 @@
       <c r="AB70" s="17"/>
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
-      <c r="AE70" s="57" t="str">
+      <c r="AE70" s="56" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF70" s="57" t="str">
+      <c r="AF70" s="56" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG70" s="57" t="str">
+      <c r="AG70" s="56" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH70" s="56" t="str">
+      <c r="AH70" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI70" s="17"/>
       <c r="AJ70" s="12"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
         <v>88</v>
       </c>
@@ -6287,26 +6253,26 @@
       <c r="AB71" s="17"/>
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
-      <c r="AE71" s="57" t="str">
+      <c r="AE71" s="56" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF71" s="57" t="str">
+      <c r="AF71" s="56" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG71" s="57" t="str">
+      <c r="AG71" s="56" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH71" s="56" t="str">
+      <c r="AH71" s="55" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI71" s="17"/>
       <c r="AJ71" s="12"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
         <v>90</v>
       </c>
@@ -6349,26 +6315,26 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AE72" s="56" t="str">
+      <c r="AE72" s="55" t="str">
         <f t="shared" si="42"/>
         <v>X</v>
       </c>
-      <c r="AF72" s="56" t="str">
+      <c r="AF72" s="55" t="str">
         <f t="shared" si="42"/>
         <v>X</v>
       </c>
-      <c r="AG72" s="56" t="str">
+      <c r="AG72" s="55" t="str">
         <f t="shared" si="42"/>
         <v>X</v>
       </c>
-      <c r="AH72" s="56" t="str">
+      <c r="AH72" s="55" t="str">
         <f t="shared" si="42"/>
         <v>X</v>
       </c>
       <c r="AI72" s="17"/>
       <c r="AJ72" s="12"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
         <v>91</v>
       </c>
@@ -6411,26 +6377,26 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="AE73" s="56" t="str">
+      <c r="AE73" s="55" t="str">
         <f t="shared" si="43"/>
         <v>X</v>
       </c>
-      <c r="AF73" s="56" t="str">
+      <c r="AF73" s="55" t="str">
         <f t="shared" si="43"/>
         <v>X</v>
       </c>
-      <c r="AG73" s="56" t="str">
+      <c r="AG73" s="55" t="str">
         <f t="shared" si="43"/>
         <v>X</v>
       </c>
-      <c r="AH73" s="56" t="str">
+      <c r="AH73" s="55" t="str">
         <f t="shared" si="43"/>
         <v>X</v>
       </c>
       <c r="AI73" s="17"/>
       <c r="AJ73" s="12"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
         <v>95</v>
       </c>
@@ -6474,7 +6440,7 @@
       <c r="AI74" s="17"/>
       <c r="AJ74" s="12"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="E75" s="1"/>
@@ -6516,7 +6482,7 @@
       <c r="AI75" s="17"/>
       <c r="AJ75" s="12"/>
     </row>
-    <row r="76" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -6560,7 +6526,7 @@
       <c r="AI76" s="18"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" s="48" t="s">
         <v>3</v>
       </c>
@@ -6689,7 +6655,7 @@
       <c r="AI77" s="51"/>
       <c r="AJ77" s="47"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C78" s="8"/>
       <c r="AI78" s="52" t="s">
         <v>53</v>
@@ -6698,35 +6664,35 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
@@ -6736,22 +6702,22 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G24:P24 AB24:AI24 G25:AI27 G28:L28 N28:AI28 G29:AI31 G32:J33 L32:M33 O32:AI33 G34:AI61">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:AI76">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:AI77">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI23">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01_WorkInProgress/01_PréProd/planning.xlsx
+++ b/01_WorkInProgress/01_PréProd/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE4641-0913-4116-AD48-7B0B11DF92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B21AF98-D5E3-4D79-958F-C27A3690EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
   <si>
     <t>Pré-production</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Rigging Grand-mère (création squelette)</t>
   </si>
   <si>
-    <t>Rigging Celia (création squeette)</t>
-  </si>
-  <si>
     <t>Rigging Alice (création squelette</t>
   </si>
   <si>
@@ -249,27 +246,18 @@
     <t>Création Blendshapes Grand-mère</t>
   </si>
   <si>
-    <t>Crétation controllers Grand-mère</t>
-  </si>
-  <si>
     <t>Skining Celia</t>
   </si>
   <si>
     <t>Création Blendshapes Celia</t>
   </si>
   <si>
-    <t>Crétation controllers Celia</t>
-  </si>
-  <si>
     <t>Skining Alice</t>
   </si>
   <si>
     <t>Création Blendshapes Alice</t>
   </si>
   <si>
-    <t>Crétation controllers Alice</t>
-  </si>
-  <si>
     <t>Blocking décors</t>
   </si>
   <si>
@@ -328,13 +316,25 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Rigging Celia (création squelette)</t>
+  </si>
+  <si>
+    <t>Props scène 1 (model/texturing)</t>
+  </si>
+  <si>
+    <t>Props scène 2 (model/texturing)</t>
+  </si>
+  <si>
+    <t>Props scène ext (model/texturing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +407,14 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -602,13 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,11 +637,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,12 +1015,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>45836</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1044,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1040,10 +1052,10 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1082,87 +1094,87 @@
   </sheetPr>
   <dimension ref="A1:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK58" sqref="AK58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" customWidth="1"/>
-    <col min="8" max="9" width="4.1796875" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" customWidth="1"/>
-    <col min="11" max="13" width="3.54296875" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" customWidth="1"/>
-    <col min="16" max="16" width="3.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="3.54296875" customWidth="1"/>
-    <col min="19" max="19" width="4.453125" customWidth="1"/>
-    <col min="20" max="23" width="4.1796875" customWidth="1"/>
-    <col min="24" max="24" width="4.26953125" customWidth="1"/>
-    <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="26" width="3.81640625" customWidth="1"/>
-    <col min="27" max="27" width="3.7265625" customWidth="1"/>
-    <col min="28" max="28" width="3.54296875" customWidth="1"/>
-    <col min="29" max="29" width="3.81640625" customWidth="1"/>
-    <col min="30" max="30" width="4.1796875" customWidth="1"/>
-    <col min="31" max="31" width="4.26953125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="34" width="4.453125" customWidth="1"/>
-    <col min="35" max="35" width="4.7265625" customWidth="1"/>
-    <col min="36" max="36" width="4.1796875" customWidth="1"/>
-    <col min="37" max="37" width="32.81640625" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="23" width="4.140625" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" customWidth="1"/>
+    <col min="30" max="30" width="4.140625" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" customWidth="1"/>
+    <col min="33" max="34" width="4.42578125" customWidth="1"/>
+    <col min="35" max="35" width="4.7109375" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1">
         <f ca="1">WEEKNUM(TODAY())</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-    </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+    </row>
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="G2">
         <v>1</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -1386,112 +1398,112 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45">
         <v>10</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="47">
         <f>Settings!B1</f>
         <v>45627</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="47">
         <f>E4+D4*7</f>
         <v>45697</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51" t="str">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48" t="str">
         <f t="shared" ref="Q4:AI4" si="1">IF(AND(Q2&gt;0,Q2&lt;=0+$D$4),"X","")</f>
         <v/>
       </c>
-      <c r="R4" s="51" t="str">
+      <c r="R4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S4" s="51" t="str">
+      <c r="S4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T4" s="51" t="str">
+      <c r="T4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U4" s="51" t="str">
+      <c r="U4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V4" s="51" t="str">
+      <c r="V4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W4" s="51" t="str">
+      <c r="W4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X4" s="51" t="str">
+      <c r="X4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y4" s="51" t="str">
+      <c r="Y4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z4" s="51" t="str">
+      <c r="Z4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA4" s="51" t="str">
+      <c r="AA4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB4" s="51" t="str">
+      <c r="AB4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC4" s="51" t="str">
+      <c r="AC4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD4" s="51" t="str">
+      <c r="AD4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE4" s="51" t="str">
+      <c r="AE4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF4" s="51" t="str">
+      <c r="AF4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG4" s="51" t="str">
+      <c r="AG4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH4" s="51" t="str">
+      <c r="AH4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI4" s="51" t="str">
+      <c r="AI4" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ4" s="51"/>
-    </row>
-    <row r="5" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="48"/>
+    </row>
+    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1568,7 @@
       <c r="AI5" s="11"/>
       <c r="AJ5" s="12"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1633,7 @@
       <c r="AI6" s="11"/>
       <c r="AJ6" s="12"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
@@ -1686,7 +1698,7 @@
       <c r="AI7" s="11"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
@@ -1751,7 +1763,7 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="12"/>
     </row>
-    <row r="9" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>42</v>
       </c>
@@ -1816,7 +1828,7 @@
       <c r="AI9" s="11"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1901,7 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="12"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -1964,7 +1976,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="12"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
@@ -2039,7 +2051,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="12"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2116,7 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="12"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2169,7 +2181,7 @@
       <c r="AI14" s="11"/>
       <c r="AJ14" s="12"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -2234,7 +2246,7 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="12"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
@@ -2298,7 +2310,7 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>51</v>
       </c>
@@ -2363,7 +2375,7 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="12"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -2428,7 +2440,7 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="12"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
@@ -2495,16 +2507,15 @@
       <c r="AI19" s="11"/>
       <c r="AJ19" s="12"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B20" s="58" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="11" t="str">
         <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2562,7 +2573,7 @@
       <c r="AI20" s="11"/>
       <c r="AJ20" s="12"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
@@ -2631,7 +2642,7 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="12"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
@@ -2700,7 +2711,7 @@
       <c r="AI22" s="11"/>
       <c r="AJ22" s="12"/>
     </row>
-    <row r="23" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="41" t="s">
         <v>19</v>
@@ -2780,100 +2791,100 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="48">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45">
         <v>14</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <f>F4</f>
         <v>45697</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="47">
         <f>E24+D24*7</f>
         <v>45795</v>
       </c>
-      <c r="G24" s="51" t="str">
+      <c r="G24" s="48" t="str">
         <f t="shared" ref="G24:AI24" si="17">IF(AND(G2&gt;$D$4,G2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="H24" s="51" t="str">
+      <c r="H24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I24" s="51" t="str">
+      <c r="I24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="J24" s="51" t="str">
+      <c r="J24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K24" s="51" t="str">
+      <c r="K24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="L24" s="51" t="str">
+      <c r="L24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="M24" s="51" t="str">
+      <c r="M24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="N24" s="51" t="str">
+      <c r="N24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="O24" s="51" t="str">
+      <c r="O24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P24" s="51" t="str">
+      <c r="P24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51" t="str">
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AF24" s="51" t="str">
+      <c r="AF24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AG24" s="51" t="str">
+      <c r="AG24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AH24" s="51" t="str">
+      <c r="AH24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AI24" s="51" t="str">
+      <c r="AI24" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AJ24" s="51"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AJ24" s="48"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>21</v>
       </c>
@@ -2972,7 +2983,7 @@
       <c r="AI25" s="15"/>
       <c r="AJ25" s="12"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
@@ -3071,65 +3082,66 @@
       <c r="AI26" s="15"/>
       <c r="AJ26" s="12"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="35" t="str">
+      <c r="L27" s="55" t="str">
         <f t="shared" ref="L27:AE27" si="20">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="M27" s="35" t="str">
+      <c r="M27" s="55" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="35" t="str">
+      <c r="N27" s="55" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="O27" s="35" t="str">
+      <c r="O27" s="55" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="P27" s="35" t="str">
+      <c r="P27" s="55" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="Q27" s="15" t="str">
+      <c r="Q27" s="22" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="R27" s="15" t="str">
+      <c r="R27" s="22" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="S27" s="15" t="str">
+      <c r="S27" s="22" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="T27" s="15" t="str">
+      <c r="T27" s="22" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="U27" s="16" t="str">
+      <c r="U27" s="56" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="V27" s="15" t="str">
+      <c r="V27" s="22" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
-      <c r="W27" s="15" t="str">
+      <c r="W27" s="22" t="str">
         <f t="shared" si="20"/>
         <v>X</v>
       </c>
@@ -3171,59 +3183,60 @@
       <c r="AI27" s="15"/>
       <c r="AJ27" s="12"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="13" t="str">
+      <c r="L28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="22" t="str">
         <f t="shared" ref="Q28:AE28" si="21">IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="R28" s="13" t="str">
+      <c r="R28" s="22" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
-      <c r="S28" s="13" t="str">
+      <c r="S28" s="22" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
-      <c r="T28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U28" s="45" t="str">
+      <c r="T28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="U28" s="56" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
-      <c r="V28" s="15" t="str">
+      <c r="V28" s="22" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
-      <c r="W28" s="15" t="str">
+      <c r="W28" s="22" t="str">
         <f t="shared" si="21"/>
         <v>X</v>
       </c>
@@ -3265,53 +3278,54 @@
       <c r="AI28" s="15"/>
       <c r="AJ28" s="12"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="8" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35" t="str">
+      <c r="L29" s="55"/>
+      <c r="M29" s="55" t="str">
         <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="15" t="str">
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="22" t="str">
         <f t="shared" ref="Q29:AB29" si="22">IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="R29" s="15" t="str">
+      <c r="R29" s="22" t="str">
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
-      <c r="S29" s="15" t="str">
+      <c r="S29" s="22" t="str">
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
-      <c r="T29" s="15" t="str">
+      <c r="T29" s="22" t="str">
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
-      <c r="U29" s="16" t="str">
+      <c r="U29" s="56" t="str">
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
-      <c r="V29" s="15" t="str">
+      <c r="V29" s="22" t="str">
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
-      <c r="W29" s="15" t="str">
+      <c r="W29" s="22" t="str">
         <f t="shared" si="22"/>
         <v>X</v>
       </c>
@@ -3350,9 +3364,9 @@
       <c r="AI29" s="15"/>
       <c r="AJ29" s="12"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>39</v>
@@ -3369,18 +3383,18 @@
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54" t="str">
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3399,37 +3413,81 @@
       <c r="AI30" s="15"/>
       <c r="AJ30" s="12"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="8" t="s">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54" t="str">
+      <c r="K31" s="36"/>
+      <c r="L31" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="36"/>
+      <c r="O31" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="P31" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R31" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S31" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T31" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U31" s="15" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V31" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W31" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X31" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y31" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z31" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA31" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB31" s="15" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3441,16 +3499,19 @@
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AE31" s="15"/>
+      <c r="AE31" s="15" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="15"/>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="12"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>39</v>
@@ -3471,55 +3532,55 @@
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="35" t="str">
-        <f t="shared" ref="O32:AE32" si="23">IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P32" s="35" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="Q32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="S32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="T32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="U32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="V32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="W32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB32" s="15" t="str">
@@ -3527,15 +3588,15 @@
         <v>X</v>
       </c>
       <c r="AC32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE32" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="AF32" s="15"/>
@@ -3544,12 +3605,12 @@
       <c r="AI32" s="15"/>
       <c r="AJ32" s="12"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
@@ -3558,80 +3619,85 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="36"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="M33" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="N33" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="O33" s="35" t="str">
-        <f t="shared" ref="O33:AE33" si="24">IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P33" s="35" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Q33" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="R33" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="S33" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="T33" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="U33" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="V33" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="W33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R33" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S33" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T33" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U33" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V33" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W33" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE33" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="AF33" s="15"/>
@@ -3640,98 +3706,92 @@
       <c r="AI33" s="15"/>
       <c r="AJ33" s="12"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35" t="str">
-        <f t="shared" ref="L34:AE34" si="25">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="M34" s="35" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N34" s="35" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O34" s="35" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P34" s="35" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="Q34" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="R34" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="S34" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="T34" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="U34" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="V34" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="W34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V34" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W34" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE34" s="15" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="AF34" s="15"/>
@@ -3740,102 +3800,73 @@
       <c r="AI34" s="15"/>
       <c r="AJ34" s="12"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="35"/>
-      <c r="L35" s="35" t="str">
-        <f t="shared" ref="L35:AE35" si="26">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M35" s="35" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N35" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U35" s="13" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="V35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="W35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="X35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="Y35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="Z35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="AA35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="AB35" s="15" t="str">
-        <f t="shared" si="26"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="S35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="V35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC35" s="15" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v>X</v>
-      </c>
-      <c r="AE35" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
       <c r="AH35" s="15"/>
       <c r="AI35" s="15"/>
       <c r="AJ35" s="12"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>39</v>
@@ -3852,18 +3883,32 @@
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54" t="str">
+      <c r="Q36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="R36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="S36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="V36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W36" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3882,37 +3927,84 @@
       <c r="AI36" s="15"/>
       <c r="AJ36" s="12"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="8" t="s">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54" t="str">
+      <c r="K37" s="34"/>
+      <c r="L37" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="O37" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="P37" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R37" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S37" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T37" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U37" s="15" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V37" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W37" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X37" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y37" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z37" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA37" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB37" s="15" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3924,44 +4016,94 @@
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AE37" s="15"/>
+      <c r="AE37" s="15" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
       <c r="AH37" s="15"/>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="12"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="8" t="s">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54" t="str">
+      <c r="K38" s="34"/>
+      <c r="L38" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="O38" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="P38" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q38" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R38" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S38" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T38" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U38" s="15" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V38" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W38" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X38" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y38" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z38" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA38" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB38" s="15" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -3973,19 +4115,22 @@
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AE38" s="15"/>
+      <c r="AE38" s="15" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="15"/>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="12"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
@@ -3994,83 +4139,85 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>53</v>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="M39" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
       </c>
       <c r="N39" s="35" t="str">
-        <f t="shared" ref="N39:AE39" si="27">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="O39" s="35" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P39" s="35" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="Q39" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="R39" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="S39" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="T39" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="U39" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="V39" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="W39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R39" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S39" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T39" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U39" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V39" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W39" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE39" s="15" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="AF39" s="15"/>
@@ -4079,9 +4226,9 @@
       <c r="AI39" s="15"/>
       <c r="AJ39" s="12"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -4093,83 +4240,81 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34" t="s">
-        <v>53</v>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
       </c>
       <c r="M40" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="35" t="str">
-        <f t="shared" ref="N40:AE40" si="28">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O40" s="35" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="P40" s="35" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q40" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v>X</v>
-      </c>
-      <c r="R40" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v>X</v>
-      </c>
-      <c r="S40" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v>X</v>
-      </c>
-      <c r="T40" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v>X</v>
-      </c>
-      <c r="U40" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v>X</v>
-      </c>
-      <c r="V40" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v>X</v>
-      </c>
-      <c r="W40" s="15" t="str">
-        <f t="shared" si="28"/>
+      <c r="N40" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R40" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S40" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T40" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U40" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V40" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W40" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE40" s="15" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="AF40" s="15"/>
@@ -4178,109 +4323,73 @@
       <c r="AI40" s="15"/>
       <c r="AJ40" s="12"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="35"/>
-      <c r="L41" s="35" t="str">
-        <f t="shared" ref="L41:AE41" si="29">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M41" s="35" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="N41" s="35" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="O41" s="35" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="P41" s="35" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Q41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="R41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="S41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="T41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="U41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="V41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="W41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="X41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="Y41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="Z41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AA41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AB41" s="15" t="str">
-        <f t="shared" si="29"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="R41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="S41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="V41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC41" s="15" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AE41" s="15" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE41" s="15"/>
       <c r="AF41" s="15"/>
       <c r="AG41" s="15"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="15"/>
       <c r="AJ41" s="12"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>39</v>
@@ -4292,119 +4401,109 @@
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="35"/>
-      <c r="L42" s="35" t="str">
-        <f t="shared" ref="L42:AE42" si="30">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M42" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N42" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q42" s="13" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="R42" s="13" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="S42" s="13" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="T42" s="13" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="U42" s="13" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="V42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="W42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="X42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="Y42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="Z42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="AA42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="AB42" s="15" t="str">
-        <f t="shared" si="30"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC42" s="15" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="AE42" s="15" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
       <c r="AJ42" s="12"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="8" t="s">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54" t="str">
+      <c r="L43" s="35" t="str">
+        <f>IF(AND(L1&gt;$D$4,L1&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="M43" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R43" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W43" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X43" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y43" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z43" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA43" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB43" s="15" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4416,44 +4515,87 @@
         <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AE43" s="15"/>
+      <c r="AE43" s="15" t="str">
+        <f>IF(AND(AE1&gt;$D$4,AE1&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
       <c r="AH43" s="15"/>
       <c r="AI43" s="15"/>
       <c r="AJ43" s="12"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="8" t="s">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
+      <c r="M44" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="N44" s="37" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54" t="str">
+      <c r="Q44" s="59" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R44" s="59" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S44" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T44" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U44" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V44" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W44" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X44" s="59" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y44" s="59" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z44" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA44" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB44" s="15" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4472,37 +4614,57 @@
       <c r="AI44" s="15"/>
       <c r="AJ44" s="12"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+    <row r="45" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="37"/>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54" t="str">
+      <c r="Q45" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R45" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S45" s="59" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T45" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="U45" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="V45" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W45" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X45" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4521,11 +4683,11 @@
       <c r="AI45" s="15"/>
       <c r="AJ45" s="12"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="20"/>
@@ -4536,155 +4698,91 @@
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="35"/>
-      <c r="L46" s="35" t="str">
-        <f>IF(AND(L1&gt;$D$4,L1&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M46" s="35" t="str">
-        <f t="shared" ref="M46:AB46" si="31">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q46" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="R46" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="W46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="X46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="Y46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="Z46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="AA46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="AB46" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="AC46" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AD46" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE46" s="15" t="str">
-        <f>IF(AND(AE1&gt;$D$4,AE1&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W46" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X46" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y46" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z46" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="15"/>
       <c r="AF46" s="15"/>
       <c r="AG46" s="15"/>
       <c r="AH46" s="15"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="12"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B47" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="8" t="s">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="35" t="str">
-        <f t="shared" ref="M47:AB47" si="32">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N47" s="37" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="O47" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="13" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="R47" s="13" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="S47" s="13" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="T47" s="13" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="U47" s="13" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="V47" s="15" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="W47" s="15" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="X47" s="15" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="Y47" s="15" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="Z47" s="15" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="AA47" s="15" t="str">
-        <f t="shared" si="32"/>
-        <v>X</v>
-      </c>
-      <c r="AB47" s="15" t="str">
-        <f t="shared" si="32"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R47" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S47" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z47" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC47" s="15" t="str">
@@ -4702,23 +4800,30 @@
       <c r="AI47" s="15"/>
       <c r="AJ47" s="12"/>
     </row>
-    <row r="48" spans="2:36" ht="29" x14ac:dyDescent="0.35">
-      <c r="B48" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B48" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="37"/>
+      <c r="M48" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="N48" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="15" t="str">
@@ -4729,19 +4834,43 @@
         <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="S48" s="15" t="str">
+      <c r="S48" s="22" t="str">
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54" t="str">
+      <c r="T48" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U48" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V48" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W48" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X48" s="59" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y48" s="59" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z48" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA48" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB48" s="15" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4760,15 +4889,16 @@
       <c r="AI48" s="15"/>
       <c r="AJ48" s="12"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B49" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+    <row r="49" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -4776,7 +4906,7 @@
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
-      <c r="N49" s="37"/>
+      <c r="N49" s="35"/>
       <c r="O49" s="33"/>
       <c r="P49" s="33"/>
       <c r="Q49" s="15" t="str">
@@ -4791,15 +4921,21 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54" t="str">
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W49" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X49" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -4818,89 +4954,66 @@
       <c r="AI49" s="15"/>
       <c r="AJ49" s="12"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B50" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="8" t="s">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N50" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O50" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q50" s="13" t="str">
-        <f t="shared" ref="Q50:AA50" si="33">IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R50" s="13" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="S50" s="13" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="T50" s="13" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="U50" s="13" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="V50" s="15" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="W50" s="15" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="X50" s="15" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="Y50" s="15" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="Z50" s="15" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="AA50" s="15" t="str">
-        <f t="shared" si="33"/>
-        <v>X</v>
-      </c>
-      <c r="AB50" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R50" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S50" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W50" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X50" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y50" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z50" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="51" t="str">
+        <f>IF(AND(AB3&gt;$D$4,AB3&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC50" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC3&gt;$D$4,AC3&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD50" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD3&gt;$D$4,AD3&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE50" s="15"/>
@@ -4910,12 +5023,12 @@
       <c r="AI50" s="15"/>
       <c r="AJ50" s="12"/>
     </row>
-    <row r="51" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4941,18 +5054,15 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
       <c r="AC51" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -4968,23 +5078,30 @@
       <c r="AI51" s="15"/>
       <c r="AJ51" s="12"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B52" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="8" t="s">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
+      <c r="M52" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="N52" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
       <c r="O52" s="33"/>
       <c r="P52" s="33"/>
       <c r="Q52" s="15" t="str">
@@ -4995,19 +5112,46 @@
         <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="S52" s="15" t="str">
+      <c r="S52" s="22" t="str">
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
+      <c r="T52" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U52" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V52" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W52" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X52" s="59" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y52" s="59" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z52" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA52" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB52" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AC52" s="15" t="str">
         <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -5023,81 +5167,54 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="12"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="B53" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+    <row r="53" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="35" t="str">
-        <f t="shared" ref="M53:AB53" si="34">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N53" s="35" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="O53" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q53" s="13" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="R53" s="13" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="S53" s="13" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="T53" s="13" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="U53" s="13" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="V53" s="15" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="W53" s="15" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="X53" s="15" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="Y53" s="15" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="Z53" s="15" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="AA53" s="15" t="str">
-        <f t="shared" si="34"/>
-        <v>X</v>
-      </c>
-      <c r="AB53" s="15" t="str">
-        <f t="shared" si="34"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R53" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S53" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W53" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X53" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC53" s="15" t="str">
@@ -5115,15 +5232,16 @@
       <c r="AI53" s="15"/>
       <c r="AJ53" s="12"/>
     </row>
-    <row r="54" spans="1:36" ht="29" x14ac:dyDescent="0.35">
-      <c r="B54" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -5132,8 +5250,8 @@
       <c r="L54" s="35"/>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
       <c r="Q54" s="15" t="str">
         <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
@@ -5146,25 +5264,35 @@
         <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AC54" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AD54" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="X54" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y54" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z54" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51" t="str">
+        <f>IF(AND(AB7&gt;$D$4,AB7&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC54" s="51" t="str">
+        <f>IF(AND(AC7&gt;$D$4,AC7&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="AD54" s="51" t="str">
+        <f>IF(AND(AD7&gt;$D$4,AD7&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
       </c>
       <c r="AE54" s="15"/>
       <c r="AF54" s="15"/>
@@ -5173,9 +5301,9 @@
       <c r="AI54" s="15"/>
       <c r="AJ54" s="12"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>39</v>
@@ -5189,63 +5317,60 @@
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
       <c r="M55" s="35" t="str">
-        <f t="shared" ref="M55:AA55" si="35">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="N55" s="35" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="O55" s="35" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P55" s="35" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="Q55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="R55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="S55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="T55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="U55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="V55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="W55" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v>X</v>
-      </c>
-      <c r="X55" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v>X</v>
-      </c>
-      <c r="Y55" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v>X</v>
-      </c>
-      <c r="Z55" s="15" t="str">
-        <f t="shared" si="35"/>
-        <v>X</v>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z55" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="AA55" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB55" s="15" t="str">
@@ -5267,9 +5392,9 @@
       <c r="AI55" s="15"/>
       <c r="AJ55" s="12"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>39</v>
@@ -5283,67 +5408,67 @@
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
       <c r="M56" s="35" t="str">
-        <f t="shared" ref="M56:AB56" si="36">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="N56" s="35" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="O56" s="35" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P56" s="35" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="Q56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="R56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="S56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="T56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="U56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="V56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="W56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X56" s="15" t="str">
-        <f t="shared" si="36"/>
-        <v>X</v>
-      </c>
-      <c r="Y56" s="15" t="str">
-        <f t="shared" si="36"/>
-        <v>X</v>
-      </c>
-      <c r="Z56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y56" s="13" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z56" s="13" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB56" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC56" s="15" t="str">
@@ -5361,9 +5486,9 @@
       <c r="AI56" s="15"/>
       <c r="AJ56" s="12"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>39</v>
@@ -5377,67 +5502,67 @@
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35" t="str">
-        <f t="shared" ref="M57:AB57" si="37">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="N57" s="35" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="O57" s="35" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P57" s="35" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="Q57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="R57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="S57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="T57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="U57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="V57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="W57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="X57" s="15" t="str">
-        <f t="shared" si="37"/>
-        <v>X</v>
-      </c>
-      <c r="Y57" s="15" t="str">
-        <f t="shared" si="37"/>
-        <v>X</v>
-      </c>
-      <c r="Z57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y57" s="13" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z57" s="13" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB57" s="15" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC57" s="15" t="str">
@@ -5455,9 +5580,9 @@
       <c r="AI57" s="15"/>
       <c r="AJ57" s="12"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>39</v>
@@ -5474,18 +5599,18 @@
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
       <c r="P58" s="35"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54" t="str">
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5504,12 +5629,12 @@
       <c r="AI58" s="15"/>
       <c r="AJ58" s="12"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5520,66 +5645,66 @@
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35" t="str">
-        <f t="shared" ref="M59:AA59" si="38">IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="N59" s="35" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="O59" s="35" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
         <v/>
       </c>
       <c r="P59" s="35" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="Q59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="R59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="S59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="T59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="U59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="V59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="W59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="X59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="Y59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="Z59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="AA59" s="54" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="AB59" s="54" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="51" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R59" s="51" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S59" s="51" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T59" s="51" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U59" s="51" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V59" s="51" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W59" s="51" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X59" s="51" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y59" s="51" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z59" s="51" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA59" s="51" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB59" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5598,12 +5723,12 @@
       <c r="AI59" s="15"/>
       <c r="AJ59" s="12"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5617,18 +5742,18 @@
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54" t="str">
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5647,12 +5772,12 @@
       <c r="AI60" s="15"/>
       <c r="AJ60" s="12"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5666,18 +5791,18 @@
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
       <c r="P61" s="35"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54" t="str">
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51" t="str">
         <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
         <v>X</v>
       </c>
@@ -5696,123 +5821,123 @@
       <c r="AI61" s="15"/>
       <c r="AJ61" s="12"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A62" s="48" t="s">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="48">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="45">
         <v>4</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="47">
         <f>F24</f>
         <v>45795</v>
       </c>
-      <c r="F62" s="50">
+      <c r="F62" s="47">
         <f>E62+D62*7</f>
         <v>45823</v>
       </c>
-      <c r="G62" s="51" t="str">
-        <f t="shared" ref="G62:M62" si="39">IF(AND(G2&gt;$D$4+$D$24,G2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="H62" s="51" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I62" s="51" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J62" s="51" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K62" s="51" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L62" s="51" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M62" s="51" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51" t="str">
-        <f t="shared" ref="O62:AB62" si="40">IF(AND(O2&gt;$D$4+$D$24,O2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="P62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="R62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="S62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="T62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="U62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="V62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="W62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="X62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Y62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Z62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="AA62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="AB62" s="51" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="51"/>
-      <c r="AF62" s="51"/>
-      <c r="AG62" s="51"/>
-      <c r="AH62" s="51"/>
-      <c r="AI62" s="51" t="str">
+      <c r="G62" s="48" t="str">
+        <f>IF(AND(G2&gt;$D$4+$D$24,G2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="H62" s="48" t="str">
+        <f>IF(AND(H2&gt;$D$4+$D$24,H2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="I62" s="48" t="str">
+        <f>IF(AND(I2&gt;$D$4+$D$24,I2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="J62" s="48" t="str">
+        <f>IF(AND(J2&gt;$D$4+$D$24,J2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="K62" s="48" t="str">
+        <f>IF(AND(K2&gt;$D$4+$D$24,K2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="L62" s="48" t="str">
+        <f>IF(AND(L2&gt;$D$4+$D$24,L2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="M62" s="48" t="str">
+        <f>IF(AND(M2&gt;$D$4+$D$24,M2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48" t="str">
+        <f>IF(AND(O2&gt;$D$4+$D$24,O2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="P62" s="48" t="str">
+        <f>IF(AND(P2&gt;$D$4+$D$24,P2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="48" t="str">
+        <f>IF(AND(Q2&gt;$D$4+$D$24,Q2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="R62" s="48" t="str">
+        <f>IF(AND(R2&gt;$D$4+$D$24,R2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="S62" s="48" t="str">
+        <f>IF(AND(S2&gt;$D$4+$D$24,S2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="T62" s="48" t="str">
+        <f>IF(AND(T2&gt;$D$4+$D$24,T2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="U62" s="48" t="str">
+        <f>IF(AND(U2&gt;$D$4+$D$24,U2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="V62" s="48" t="str">
+        <f>IF(AND(V2&gt;$D$4+$D$24,V2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="W62" s="48" t="str">
+        <f>IF(AND(W2&gt;$D$4+$D$24,W2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="X62" s="48" t="str">
+        <f>IF(AND(X2&gt;$D$4+$D$24,X2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="Y62" s="48" t="str">
+        <f>IF(AND(Y2&gt;$D$4+$D$24,Y2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="48" t="str">
+        <f>IF(AND(Z2&gt;$D$4+$D$24,Z2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="AA62" s="48" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB62" s="48" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC62" s="48"/>
+      <c r="AD62" s="48"/>
+      <c r="AE62" s="48"/>
+      <c r="AF62" s="48"/>
+      <c r="AG62" s="48"/>
+      <c r="AH62" s="48"/>
+      <c r="AI62" s="48" t="str">
         <f>IF(AND(AI2&gt;$D$4+$D$24,AI2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
-      <c r="AJ62" s="51"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AJ62" s="48"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C63" s="8"/>
       <c r="E63" s="1"/>
@@ -5838,43 +5963,43 @@
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
       <c r="AA63" s="17" t="str">
-        <f t="shared" ref="AA63:AH63" si="41">IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AB63" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AC63" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AD63" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AE63" s="55" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-      <c r="AF63" s="55" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-      <c r="AG63" s="55" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-      <c r="AH63" s="55" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE63" s="52" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF63" s="52" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG63" s="52" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH63" s="52" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI63" s="17"/>
       <c r="AJ63" s="12"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C64" s="8"/>
       <c r="E64" s="1"/>
@@ -5903,28 +6028,28 @@
       <c r="AB64" s="17"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="55" t="str">
+      <c r="AE64" s="52" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF64" s="55" t="str">
+      <c r="AF64" s="52" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG64" s="55" t="str">
+      <c r="AG64" s="52" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH64" s="55" t="str">
+      <c r="AH64" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI64" s="17"/>
       <c r="AJ64" s="12"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C65" s="8"/>
       <c r="E65" s="1"/>
@@ -5953,28 +6078,28 @@
       <c r="AB65" s="17"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="55" t="str">
+      <c r="AE65" s="52" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF65" s="55" t="str">
+      <c r="AF65" s="52" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG65" s="55" t="str">
+      <c r="AG65" s="52" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH65" s="55" t="str">
+      <c r="AH65" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI65" s="17"/>
       <c r="AJ65" s="12"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="8"/>
       <c r="E66" s="1"/>
@@ -6003,28 +6128,28 @@
       <c r="AB66" s="17"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="55" t="str">
+      <c r="AE66" s="52" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF66" s="55" t="str">
+      <c r="AF66" s="52" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG66" s="55" t="str">
+      <c r="AG66" s="52" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH66" s="55" t="str">
+      <c r="AH66" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI66" s="17"/>
       <c r="AJ66" s="12"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="8"/>
       <c r="E67" s="1"/>
@@ -6053,28 +6178,28 @@
       <c r="AB67" s="17"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
-      <c r="AE67" s="56" t="str">
+      <c r="AE67" s="53" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF67" s="56" t="str">
+      <c r="AF67" s="53" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG67" s="56" t="str">
+      <c r="AG67" s="53" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH67" s="55" t="str">
+      <c r="AH67" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI67" s="17"/>
       <c r="AJ67" s="12"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="8"/>
       <c r="E68" s="1"/>
@@ -6103,28 +6228,28 @@
       <c r="AB68" s="17"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
-      <c r="AE68" s="56" t="str">
+      <c r="AE68" s="53" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF68" s="56" t="str">
+      <c r="AF68" s="53" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG68" s="56" t="str">
+      <c r="AG68" s="53" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH68" s="55" t="str">
+      <c r="AH68" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI68" s="17"/>
       <c r="AJ68" s="12"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="8"/>
       <c r="E69" s="1"/>
@@ -6153,28 +6278,28 @@
       <c r="AB69" s="17"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
-      <c r="AE69" s="56" t="str">
+      <c r="AE69" s="53" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF69" s="56" t="str">
+      <c r="AF69" s="53" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG69" s="56" t="str">
+      <c r="AG69" s="53" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH69" s="55" t="str">
+      <c r="AH69" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI69" s="17"/>
       <c r="AJ69" s="12"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" s="8"/>
       <c r="E70" s="1"/>
@@ -6203,28 +6328,28 @@
       <c r="AB70" s="17"/>
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
-      <c r="AE70" s="56" t="str">
+      <c r="AE70" s="53" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF70" s="56" t="str">
+      <c r="AF70" s="53" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG70" s="56" t="str">
+      <c r="AG70" s="53" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH70" s="55" t="str">
+      <c r="AH70" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI70" s="17"/>
       <c r="AJ70" s="12"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" s="8"/>
       <c r="E71" s="1"/>
@@ -6253,28 +6378,28 @@
       <c r="AB71" s="17"/>
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
-      <c r="AE71" s="56" t="str">
+      <c r="AE71" s="53" t="str">
         <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF71" s="56" t="str">
+      <c r="AF71" s="53" t="str">
         <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG71" s="56" t="str">
+      <c r="AG71" s="53" t="str">
         <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH71" s="55" t="str">
+      <c r="AH71" s="52" t="str">
         <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI71" s="17"/>
       <c r="AJ71" s="12"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="8"/>
       <c r="E72" s="1"/>
@@ -6300,43 +6425,43 @@
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
       <c r="AA72" s="17" t="str">
-        <f t="shared" ref="AA72:AH72" si="42">IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AB72" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AC72" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AD72" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AE72" s="55" t="str">
-        <f t="shared" si="42"/>
-        <v>X</v>
-      </c>
-      <c r="AF72" s="55" t="str">
-        <f t="shared" si="42"/>
-        <v>X</v>
-      </c>
-      <c r="AG72" s="55" t="str">
-        <f t="shared" si="42"/>
-        <v>X</v>
-      </c>
-      <c r="AH72" s="55" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE72" s="52" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF72" s="52" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG72" s="52" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH72" s="52" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI72" s="17"/>
       <c r="AJ72" s="12"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="8"/>
       <c r="E73" s="1"/>
@@ -6362,43 +6487,43 @@
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
       <c r="AA73" s="17" t="str">
-        <f t="shared" ref="AA73:AH73" si="43">IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AB73" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AC73" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v/>
       </c>
       <c r="AD73" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AE73" s="55" t="str">
-        <f t="shared" si="43"/>
-        <v>X</v>
-      </c>
-      <c r="AF73" s="55" t="str">
-        <f t="shared" si="43"/>
-        <v>X</v>
-      </c>
-      <c r="AG73" s="55" t="str">
-        <f t="shared" si="43"/>
-        <v>X</v>
-      </c>
-      <c r="AH73" s="55" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE73" s="52" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF73" s="52" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG73" s="52" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH73" s="52" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI73" s="17"/>
       <c r="AJ73" s="12"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="8"/>
       <c r="E74" s="1"/>
@@ -6440,7 +6565,7 @@
       <c r="AI74" s="17"/>
       <c r="AJ74" s="12"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="E75" s="1"/>
@@ -6482,7 +6607,7 @@
       <c r="AI75" s="17"/>
       <c r="AJ75" s="12"/>
     </row>
-    <row r="76" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -6526,173 +6651,173 @@
       <c r="AI76" s="18"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A77" s="48" t="s">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="48">
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="45">
         <v>1</v>
       </c>
-      <c r="E77" s="50">
+      <c r="E77" s="47">
         <f>F62</f>
         <v>45823</v>
       </c>
-      <c r="F77" s="50">
+      <c r="F77" s="47">
         <f>E77+D77*7</f>
         <v>45830</v>
       </c>
-      <c r="G77" s="51" t="str">
-        <f t="shared" ref="G77:AG77" si="44">IF(AND(G2&gt;$D$4+$D$24+$D$62,G2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="H77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="P77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="Q77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="R77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="S77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="T77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="U77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="V77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="W77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="X77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="Y77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="Z77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AA77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AB77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AC77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AD77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AE77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AF77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AG77" s="51" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AH77" s="51"/>
-      <c r="AI77" s="51"/>
-      <c r="AJ77" s="47"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="G77" s="48" t="str">
+        <f>IF(AND(G2&gt;$D$4+$D$24+$D$62,G2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="H77" s="48" t="str">
+        <f>IF(AND(H2&gt;$D$4+$D$24+$D$62,H2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="I77" s="48" t="str">
+        <f>IF(AND(I2&gt;$D$4+$D$24+$D$62,I2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="J77" s="48" t="str">
+        <f>IF(AND(J2&gt;$D$4+$D$24+$D$62,J2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="K77" s="48" t="str">
+        <f>IF(AND(K2&gt;$D$4+$D$24+$D$62,K2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="L77" s="48" t="str">
+        <f>IF(AND(L2&gt;$D$4+$D$24+$D$62,L2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="M77" s="48" t="str">
+        <f>IF(AND(M2&gt;$D$4+$D$24+$D$62,M2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="N77" s="48" t="str">
+        <f>IF(AND(N2&gt;$D$4+$D$24+$D$62,N2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="O77" s="48" t="str">
+        <f>IF(AND(O2&gt;$D$4+$D$24+$D$62,O2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="P77" s="48" t="str">
+        <f>IF(AND(P2&gt;$D$4+$D$24+$D$62,P2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q77" s="48" t="str">
+        <f>IF(AND(Q2&gt;$D$4+$D$24+$D$62,Q2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="R77" s="48" t="str">
+        <f>IF(AND(R2&gt;$D$4+$D$24+$D$62,R2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="S77" s="48" t="str">
+        <f>IF(AND(S2&gt;$D$4+$D$24+$D$62,S2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="T77" s="48" t="str">
+        <f>IF(AND(T2&gt;$D$4+$D$24+$D$62,T2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="U77" s="48" t="str">
+        <f>IF(AND(U2&gt;$D$4+$D$24+$D$62,U2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="V77" s="48" t="str">
+        <f>IF(AND(V2&gt;$D$4+$D$24+$D$62,V2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="W77" s="48" t="str">
+        <f>IF(AND(W2&gt;$D$4+$D$24+$D$62,W2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="X77" s="48" t="str">
+        <f>IF(AND(X2&gt;$D$4+$D$24+$D$62,X2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="Y77" s="48" t="str">
+        <f>IF(AND(Y2&gt;$D$4+$D$24+$D$62,Y2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="Z77" s="48" t="str">
+        <f>IF(AND(Z2&gt;$D$4+$D$24+$D$62,Z2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AA77" s="48" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$24+$D$62,AA2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB77" s="48" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$24+$D$62,AB2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC77" s="48" t="str">
+        <f>IF(AND(AC2&gt;$D$4+$D$24+$D$62,AC2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AD77" s="48" t="str">
+        <f>IF(AND(AD2&gt;$D$4+$D$24+$D$62,AD2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE77" s="48" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$24+$D$62,AE2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AF77" s="48" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$24+$D$62,AF2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AG77" s="48" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$24+$D$62,AG2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
+        <v/>
+      </c>
+      <c r="AH77" s="48"/>
+      <c r="AI77" s="48"/>
+      <c r="AJ77" s="44"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
-      <c r="AI78" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ78" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AI78" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ78" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
@@ -6701,7 +6826,7 @@
     <mergeCell ref="G1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G24:P24 AB24:AI24 G25:AI27 G28:L28 N28:AI28 G29:AI31 G32:J33 L32:M33 O32:AI33 G34:AI61">
+  <conditionalFormatting sqref="G24:P24 AB24:AI24 G25:AI27 G28:L28 N28:AI28 G29:AI30 G31:J32 L31:M32 O31:AI32 G33:AI61">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G24)))</formula>
     </cfRule>

--- a/01_WorkInProgress/01_PréProd/planning.xlsx
+++ b/01_WorkInProgress/01_PréProd/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B21AF98-D5E3-4D79-958F-C27A3690EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74454EE-9934-4A3F-9AD1-5111BB693707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{94A99A4B-C815-441A-952F-04AC002877EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="94">
   <si>
     <t>Pré-production</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Réaliser le pitch</t>
   </si>
   <si>
-    <t>Réaliser light script / color script</t>
-  </si>
-  <si>
     <t>Réaliser le layout et répérages</t>
   </si>
   <si>
@@ -243,21 +240,12 @@
     <t>Skining Grand-mère</t>
   </si>
   <si>
-    <t>Création Blendshapes Grand-mère</t>
-  </si>
-  <si>
     <t>Skining Celia</t>
   </si>
   <si>
-    <t>Création Blendshapes Celia</t>
-  </si>
-  <si>
     <t>Skining Alice</t>
   </si>
   <si>
-    <t>Création Blendshapes Alice</t>
-  </si>
-  <si>
     <t>Blocking décors</t>
   </si>
   <si>
@@ -306,9 +294,6 @@
     <t>Réaliser le dossier de production</t>
   </si>
   <si>
-    <t>VFX Scène Ext</t>
-  </si>
-  <si>
     <t>VFX Scène 1</t>
   </si>
   <si>
@@ -328,6 +313,15 @@
   </si>
   <si>
     <t>Props scène ext (model/texturing)</t>
+  </si>
+  <si>
+    <t>Expressions Grand-mère</t>
+  </si>
+  <si>
+    <t>Expressions Celia</t>
+  </si>
+  <si>
+    <t>Expressions Alice</t>
   </si>
 </sst>
 </file>
@@ -503,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -634,9 +628,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +642,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,10 +1089,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ86"/>
+  <dimension ref="A1:AJ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK58" sqref="AK58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK44" sqref="AK44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,37 +1139,37 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
     </row>
     <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="G2">
@@ -1635,7 +1632,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>38</v>
@@ -1863,10 +1860,10 @@
         <v>X</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O10" s="22" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
@@ -1877,10 +1874,10 @@
         <v>X</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
@@ -1906,7 +1903,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
@@ -1936,10 +1933,10 @@
         <v>X</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="22" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
@@ -1950,13 +1947,13 @@
         <v>X</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
@@ -2011,10 +2008,10 @@
         <v>X</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" s="22" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
@@ -2025,13 +2022,13 @@
         <v>X</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>37</v>
@@ -2277,7 +2274,7 @@
         <v>X</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>37</v>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>37</v>
@@ -2475,7 +2472,7 @@
         <v>X</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="11" t="str">
@@ -2508,14 +2505,15 @@
       <c r="AJ19" s="12"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="11" t="str">
         <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2528,20 +2526,24 @@
         <f>IF(AND(I2&gt;0,I2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="J20" s="22" t="str">
         <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="K20" s="11" t="str">
+      <c r="K20" s="22" t="str">
         <f>IF(AND(K2&gt;0,K2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="22" t="str">
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="M20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="O20" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2550,13 +2552,11 @@
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="33" t="s">
-        <v>53</v>
-      </c>
+      <c r="U20" s="32"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -2577,9 +2577,7 @@
       <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -2595,24 +2593,20 @@
         <f>IF(AND(I2&gt;0,I2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J21" s="22" t="str">
+      <c r="J21" s="11" t="str">
         <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="K21" s="22" t="str">
+      <c r="K21" s="11" t="str">
         <f>IF(AND(K2&gt;0,K2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="L21" s="22" t="str">
+      <c r="L21" s="11" t="str">
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="11" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
@@ -2622,9 +2616,15 @@
         <v>X</v>
       </c>
       <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
+      <c r="R21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>52</v>
+      </c>
       <c r="U21" s="32"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
@@ -2642,251 +2642,281 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="12"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="11" t="str">
+    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="14" t="str">
         <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="H22" s="11" t="str">
+      <c r="H22" s="14" t="str">
         <f>IF(AND(H2&gt;0,H2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="I22" s="11" t="str">
+      <c r="I22" s="14" t="str">
         <f>IF(AND(I2&gt;0,I2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J22" s="11" t="str">
-        <f>IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="K22" s="11" t="str">
+      <c r="J22" s="14" t="str">
+        <f>IF(AND(J2&gt;0,J2&lt;=0+$D$4),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K22" s="14" t="str">
         <f>IF(AND(K2&gt;0,K2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="L22" s="11" t="str">
+      <c r="L22" s="39" t="str">
         <f>IF(AND(L2&gt;0,L2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="11" t="str">
+      <c r="M22" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="39" t="str">
         <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="P22" s="11" t="str">
+      <c r="P22" s="39" t="str">
         <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="32"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="12"/>
-    </row>
-    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="14" t="str">
-        <f t="shared" ref="G23:L23" si="16">IF(AND(G2&gt;0,G2&lt;=0+$D$4),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="H23" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="I23" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="J23" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="K23" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="L23" s="39" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="39" t="str">
-        <f>IF(AND(O2&gt;0,O2&lt;=0+$D$4),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="P23" s="39" t="str">
-        <f>IF(AND(P2&gt;0,P2&lt;=0+$D$4),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="R23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="T23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="6"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="Q22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="6"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="45">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45">
         <v>14</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E23" s="47">
         <f>F4</f>
         <v>45697</v>
       </c>
-      <c r="F24" s="47">
-        <f>E24+D24*7</f>
+      <c r="F23" s="47">
+        <f>E23+D23*7</f>
         <v>45795</v>
       </c>
-      <c r="G24" s="48" t="str">
-        <f t="shared" ref="G24:AI24" si="17">IF(AND(G2&gt;$D$4,G2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="H24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="I24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="K24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="N24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="O24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="P24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AG24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AH24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AI24" s="48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="48"/>
+      <c r="G23" s="48" t="str">
+        <f>IF(AND(G2&gt;$D$4,G2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="H23" s="48" t="str">
+        <f>IF(AND(H2&gt;$D$4,H2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="I23" s="48" t="str">
+        <f>IF(AND(I2&gt;$D$4,I2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="J23" s="48" t="str">
+        <f>IF(AND(J2&gt;$D$4,J2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="K23" s="48" t="str">
+        <f>IF(AND(K2&gt;$D$4,K2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="L23" s="48" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="M23" s="48" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N23" s="48" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O23" s="48" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P23" s="48" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AF23" s="48" t="str">
+        <f>IF(AND(AF2&gt;$D$4,AF2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AG23" s="48" t="str">
+        <f>IF(AND(AG2&gt;$D$4,AG2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AH23" s="48" t="str">
+        <f>IF(AND(AH2&gt;$D$4,AH2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AI23" s="48" t="str">
+        <f>IF(AND(AI2&gt;$D$4,AI2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AJ23" s="48"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O24" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P24" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R24" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S24" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T24" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U24" s="16" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V24" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W24" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X24" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y24" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z24" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA24" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB24" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AC24" s="15" t="str">
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AD24" s="15" t="str">
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE24" s="15" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="12"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>39</v>
@@ -2897,84 +2927,84 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" s="34"/>
       <c r="N25" s="35" t="str">
-        <f t="shared" ref="N25:AE25" si="18">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="O25" s="35" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P25" s="35" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="Q25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="U25" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE25" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF25" s="15"/>
@@ -2985,10 +3015,10 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
@@ -2997,83 +3027,85 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35" t="str">
-        <f t="shared" ref="N26:AE26" si="19">IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O26" s="35" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="P26" s="35" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q26" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
-      </c>
-      <c r="R26" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
-      </c>
-      <c r="S26" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
-      </c>
-      <c r="T26" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
-      </c>
-      <c r="U26" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
-      </c>
-      <c r="V26" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
-      </c>
-      <c r="W26" s="15" t="str">
-        <f t="shared" si="19"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="54" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="M26" s="54" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N26" s="54" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O26" s="54" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P26" s="54" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R26" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S26" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T26" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U26" s="55" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V26" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W26" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF26" s="15"/>
@@ -3084,10 +3116,10 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
@@ -3097,84 +3129,78 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="55" t="str">
-        <f t="shared" ref="L27:AE27" si="20">IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M27" s="55" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N27" s="55" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O27" s="55" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P27" s="55" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+      <c r="L27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S27" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>X</v>
-      </c>
-      <c r="T27" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>X</v>
-      </c>
-      <c r="U27" s="56" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="55" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V27" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W27" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE27" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF27" s="15"/>
@@ -3185,7 +3211,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>39</v>
@@ -3198,80 +3224,71 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>53</v>
-      </c>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="22" t="str">
-        <f t="shared" ref="Q28:AE28" si="21">IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R28" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S28" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>X</v>
-      </c>
-      <c r="T28" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="U28" s="56" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T28" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U28" s="55" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V28" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W28" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X28" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y28" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z28" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA28" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB28" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC28" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD28" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>X</v>
-      </c>
-      <c r="AE28" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
@@ -3279,82 +3296,57 @@
       <c r="AJ28" s="12"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="22" t="str">
-        <f t="shared" ref="Q29:AB29" si="22">IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R29" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="S29" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="T29" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="U29" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="V29" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="W29" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="X29" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="Y29" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="Z29" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="AA29" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="AB29" s="15" t="str">
-        <f t="shared" si="22"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X29" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y29" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z29" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC29" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD29" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE29" s="15"/>
@@ -3365,48 +3357,95 @@
       <c r="AJ29" s="12"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="K30" s="36"/>
+      <c r="L30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="36"/>
+      <c r="O30" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P30" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R30" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S30" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T30" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U30" s="15" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V30" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W30" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X30" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y30" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z30" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA30" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB30" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC30" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD30" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE30" s="15"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE30" s="15" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
@@ -3415,7 +3454,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>39</v>
@@ -3429,78 +3468,78 @@
       <c r="J31" s="15"/>
       <c r="K31" s="36"/>
       <c r="L31" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N31" s="36"/>
       <c r="O31" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P31" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="Q31" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S31" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T31" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="U31" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V31" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W31" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X31" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y31" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z31" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA31" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB31" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC31" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD31" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE31" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF31" s="15"/>
@@ -3511,10 +3550,10 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
@@ -3523,80 +3562,85 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="36"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="M32" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N32" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="O32" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P32" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R32" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S32" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T32" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U32" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V32" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W32" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R32" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S32" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T32" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U32" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V32" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W32" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X32" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y32" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z32" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA32" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB32" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC32" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD32" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE32" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF32" s="15"/>
@@ -3607,10 +3651,10 @@
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
@@ -3621,83 +3665,76 @@
       <c r="J33" s="15"/>
       <c r="K33" s="35"/>
       <c r="L33" s="35" t="str">
-        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="M33" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N33" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O33" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="P33" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="22" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R33" s="22" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S33" s="22" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T33" s="22" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="U33" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V33" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W33" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X33" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y33" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z33" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA33" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB33" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC33" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD33" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE33" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF33" s="15"/>
@@ -3708,7 +3745,7 @@
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>39</v>
@@ -3721,79 +3758,49 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="35"/>
-      <c r="L34" s="35" t="str">
-        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M34" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N34" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="S34" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="T34" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="U34" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V34" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W34" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X34" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y34" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z34" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA34" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AB34" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="T34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC34" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD34" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE34" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
       <c r="AH34" s="15"/>
@@ -3801,15 +3808,14 @@
       <c r="AJ34" s="12"/>
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -3820,41 +3826,41 @@
       <c r="N35" s="33"/>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="R35" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S35" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="T35" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="U35" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="V35" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W35" s="58" t="s">
-        <v>53</v>
+      <c r="Q35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W35" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="X35" s="51"/>
       <c r="Y35" s="51"/>
       <c r="Z35" s="51"/>
       <c r="AA35" s="51"/>
       <c r="AB35" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC35" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD35" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE35" s="15"/>
@@ -3865,62 +3871,98 @@
       <c r="AJ35" s="12"/>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="R36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="T36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="U36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="V36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O36" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P36" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R36" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S36" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T36" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U36" s="15" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V36" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W36" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X36" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y36" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z36" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA36" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB36" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC36" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD36" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE36" s="15"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE36" s="15" t="str">
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="15"/>
@@ -3929,7 +3971,7 @@
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>39</v>
@@ -3943,81 +3985,81 @@
       <c r="J37" s="15"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N37" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="O37" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P37" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="Q37" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S37" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T37" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="U37" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V37" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W37" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X37" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y37" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z37" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA37" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB37" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC37" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD37" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE37" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF37" s="15"/>
@@ -4028,10 +4070,10 @@
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="21"/>
@@ -4040,83 +4082,85 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" s="34" t="s">
-        <v>53</v>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35" t="str">
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="M38" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
       </c>
       <c r="N38" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="O38" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P38" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R38" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S38" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T38" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U38" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V38" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W38" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q38" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R38" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S38" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T38" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U38" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V38" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W38" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X38" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y38" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z38" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA38" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB38" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC38" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD38" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE38" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF38" s="15"/>
@@ -4127,10 +4171,10 @@
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
@@ -4141,83 +4185,79 @@
       <c r="J39" s="15"/>
       <c r="K39" s="35"/>
       <c r="L39" s="35" t="str">
-        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M39" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N39" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O39" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="P39" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
+        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="Q39" s="22" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R39" s="22" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S39" s="22" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T39" s="22" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="U39" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V39" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W39" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X39" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y39" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z39" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA39" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB39" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC39" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD39" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE39" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="AF39" s="15"/>
@@ -4228,7 +4268,7 @@
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -4241,82 +4281,49 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="35"/>
-      <c r="L40" s="35" t="str">
-        <f>IF(AND(L2&gt;$D$4,L2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" s="22" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R40" s="22" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S40" s="22" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T40" s="22" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U40" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V40" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W40" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X40" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y40" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z40" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA40" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AB40" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="L40" s="35"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W40" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC40" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD40" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE40" s="15" t="str">
-        <f>IF(AND(AE2&gt;$D$4,AE2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
@@ -4324,15 +4331,14 @@
       <c r="AJ40" s="12"/>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -4343,41 +4349,27 @@
       <c r="N41" s="33"/>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
-      <c r="Q41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="R41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="T41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="U41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="V41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W41" s="58" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
       <c r="X41" s="51"/>
       <c r="Y41" s="51"/>
       <c r="Z41" s="51"/>
       <c r="AA41" s="51"/>
       <c r="AB41" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC41" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD41" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE41" s="15"/>
@@ -4388,48 +4380,88 @@
       <c r="AJ41" s="12"/>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
+      <c r="L42" s="35" t="str">
+        <f>IF(AND(L1&gt;$D$4,L1&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="M42" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" s="22" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R42" s="22" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="S42" s="50"/>
       <c r="T42" s="50"/>
       <c r="U42" s="50"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="V42" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W42" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X42" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y42" s="15" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z42" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA42" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB42" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC42" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD42" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE42" s="15"/>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE42" s="15" t="str">
+        <f>IF(AND(AE1&gt;$D$4,AE1&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
@@ -4438,7 +4470,7 @@
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>39</v>
@@ -4451,86 +4483,86 @@
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="35"/>
-      <c r="L43" s="35" t="str">
-        <f>IF(AND(L1&gt;$D$4,L1&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+      <c r="L43" s="35"/>
       <c r="M43" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N43" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q43" s="22" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R43" s="22" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W43" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X43" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y43" s="15" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N43" s="37" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="58" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R43" s="58" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S43" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T43" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U43" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V43" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W43" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X43" s="58" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y43" s="58" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z43" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA43" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB43" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC43" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD43" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE43" s="15" t="str">
-        <f>IF(AND(AE1&gt;$D$4,AE1&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AE43" s="15"/>
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
       <c r="AH43" s="15"/>
       <c r="AI43" s="15"/>
       <c r="AJ43" s="12"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
@@ -4541,70 +4573,50 @@
       <c r="J44" s="15"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N44" s="37" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+      <c r="M44" s="35"/>
+      <c r="N44" s="37"/>
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
-      <c r="Q44" s="59" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R44" s="59" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S44" s="22" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T44" s="22" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U44" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V44" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W44" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X44" s="59" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y44" s="59" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z44" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA44" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AB44" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="Q44" s="15" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R44" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S44" s="58" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T44" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="U44" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="V44" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W44" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X44" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC44" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD44" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE44" s="15"/>
@@ -4614,12 +4626,12 @@
       <c r="AI44" s="15"/>
       <c r="AJ44" s="12"/>
     </row>
-    <row r="45" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
@@ -4631,51 +4643,36 @@
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
-      <c r="N45" s="37"/>
+      <c r="N45" s="35"/>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R45" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S45" s="59" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T45" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="U45" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="V45" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W45" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X45" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W45" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X45" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y45" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z45" s="57" t="s">
+        <v>52</v>
+      </c>
       <c r="AA45" s="51"/>
-      <c r="AB45" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AC45" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AD45" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
       <c r="AE45" s="15"/>
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
@@ -4685,9 +4682,9 @@
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="20"/>
@@ -4700,36 +4697,45 @@
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
+      <c r="N46" s="37"/>
       <c r="O46" s="33"/>
       <c r="P46" s="33"/>
       <c r="Q46" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R46" s="15" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S46" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="T46" s="50"/>
       <c r="U46" s="50"/>
-      <c r="V46" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W46" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X46" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y46" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z46" s="58" t="s">
-        <v>53</v>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z46" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="51"/>
+      <c r="AB46" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AC46" s="15" t="str">
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AD46" s="15" t="str">
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AE46" s="15"/>
       <c r="AF46" s="15"/>
       <c r="AG46" s="15"/>
@@ -4739,7 +4745,7 @@
     </row>
     <row r="47" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>39</v>
@@ -4753,44 +4759,70 @@
       <c r="J47" s="15"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="37"/>
+      <c r="M47" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N47" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="O47" s="33"/>
       <c r="P47" s="33"/>
       <c r="Q47" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R47" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S47" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z47" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S47" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T47" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U47" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V47" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W47" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X47" s="58" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y47" s="58" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z47" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA47" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB47" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC47" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD47" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE47" s="15"/>
@@ -4800,12 +4832,12 @@
       <c r="AI47" s="15"/>
       <c r="AJ47" s="12"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
@@ -4816,70 +4848,50 @@
       <c r="J48" s="15"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N48" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R48" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S48" s="22" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T48" s="22" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U48" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V48" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W48" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X48" s="59" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y48" s="59" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z48" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA48" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AB48" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S48" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W48" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X48" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y48" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z48" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC48" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD48" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE48" s="15"/>
@@ -4889,12 +4901,12 @@
       <c r="AI48" s="15"/>
       <c r="AJ48" s="12"/>
     </row>
-    <row r="49" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="21"/>
@@ -4910,41 +4922,45 @@
       <c r="O49" s="33"/>
       <c r="P49" s="33"/>
       <c r="Q49" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R49" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S49" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T49" s="50"/>
       <c r="U49" s="50"/>
-      <c r="V49" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W49" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X49" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
+      <c r="V49" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="W49" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X49" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y49" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z49" s="50" t="s">
+        <v>52</v>
+      </c>
       <c r="AA49" s="51"/>
       <c r="AB49" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB3&gt;$D$4,AB3&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC49" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC3&gt;$D$4,AC3&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD49" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD3&gt;$D$4,AD3&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE49" s="15"/>
@@ -4955,15 +4971,14 @@
       <c r="AJ49" s="12"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="29" t="s">
+      <c r="B50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -4975,45 +4990,32 @@
       <c r="O50" s="33"/>
       <c r="P50" s="33"/>
       <c r="Q50" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R50" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S50" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T50" s="50"/>
       <c r="U50" s="50"/>
-      <c r="V50" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W50" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X50" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y50" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z50" s="58" t="s">
-        <v>53</v>
-      </c>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
       <c r="AA50" s="51"/>
-      <c r="AB50" s="51" t="str">
-        <f>IF(AND(AB3&gt;$D$4,AB3&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
+      <c r="AB50" s="51"/>
       <c r="AC50" s="15" t="str">
-        <f>IF(AND(AC3&gt;$D$4,AC3&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD50" s="15" t="str">
-        <f>IF(AND(AD3&gt;$D$4,AD3&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE50" s="15"/>
@@ -5024,51 +5026,85 @@
       <c r="AJ50" s="12"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
+      <c r="M51" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N51" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="O51" s="33"/>
       <c r="P51" s="33"/>
       <c r="Q51" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R51" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S51" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T51" s="50"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="51"/>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S51" s="22" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T51" s="22" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U51" s="22" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V51" s="22" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W51" s="22" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X51" s="58" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y51" s="58" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z51" s="15" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA51" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB51" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AC51" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD51" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE51" s="15"/>
@@ -5078,12 +5114,12 @@
       <c r="AI51" s="15"/>
       <c r="AJ51" s="12"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="21"/>
@@ -5094,70 +5130,46 @@
       <c r="J52" s="15"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N52" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
       <c r="Q52" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R52" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S52" s="22" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T52" s="22" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U52" s="22" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V52" s="22" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W52" s="22" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X52" s="59" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y52" s="59" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z52" s="15" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA52" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AB52" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S52" s="15" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W52" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X52" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC52" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD52" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE52" s="15"/>
@@ -5167,12 +5179,12 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="12"/>
     </row>
-    <row r="53" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="21"/>
@@ -5185,45 +5197,49 @@
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
       <c r="Q53" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R53" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S53" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W53" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X53" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z53" s="50" t="s">
+        <v>52</v>
+      </c>
       <c r="AA53" s="51"/>
       <c r="AB53" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AC53" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AD53" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
+        <f>IF(AND(AB7&gt;$D$4,AB7&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC53" s="51" t="str">
+        <f>IF(AND(AC7&gt;$D$4,AC7&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="AD53" s="51" t="str">
+        <f>IF(AND(AD7&gt;$D$4,AD7&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
       </c>
       <c r="AE53" s="15"/>
       <c r="AF53" s="15"/>
@@ -5233,66 +5249,88 @@
       <c r="AJ53" s="12"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="29" t="s">
+      <c r="B54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
+      <c r="M54" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N54" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O54" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P54" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
       <c r="Q54" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R54" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S54" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="W54" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="X54" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y54" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z54" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="51" t="str">
-        <f>IF(AND(AB7&gt;$D$4,AB7&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC54" s="51" t="str">
-        <f>IF(AND(AC7&gt;$D$4,AC7&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="AD54" s="51" t="str">
-        <f>IF(AND(AD7&gt;$D$4,AD7&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T54" s="15" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U54" s="15" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V54" s="15" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W54" s="15" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA54" s="15" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AB54" s="15" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AC54" s="15" t="str">
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AD54" s="15" t="str">
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
       </c>
       <c r="AE54" s="15"/>
       <c r="AF54" s="15"/>
@@ -5303,7 +5341,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>39</v>
@@ -5317,72 +5355,75 @@
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
       <c r="M55" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="N55" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="O55" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P55" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="Q55" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R55" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S55" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T55" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="U55" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V55" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W55" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X55" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y55" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z55" s="13" t="s">
-        <v>53</v>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X55" s="15" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y55" s="13" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z55" s="13" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
       </c>
       <c r="AA55" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB55" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC55" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD55" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE55" s="15"/>
@@ -5394,7 +5435,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>39</v>
@@ -5408,75 +5449,75 @@
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
       <c r="M56" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="N56" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="O56" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="P56" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
         <v/>
       </c>
       <c r="Q56" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="R56" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="S56" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="T56" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="U56" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="V56" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="W56" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="X56" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Y56" s="13" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="Z56" s="13" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AA56" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AB56" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC56" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD56" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE56" s="15"/>
@@ -5488,7 +5529,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>39</v>
@@ -5501,76 +5542,35 @@
       <c r="J57" s="15"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
-      <c r="M57" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N57" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O57" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="P57" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q57" s="15" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R57" s="15" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S57" s="15" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T57" s="15" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U57" s="15" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V57" s="15" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W57" s="15" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X57" s="15" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y57" s="13" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z57" s="13" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA57" s="15" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AB57" s="15" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z57" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51" t="str">
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC57" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD57" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE57" s="15"/>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5595,31 +5595,76 @@
       <c r="J58" s="15"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-      <c r="AA58" s="51"/>
+      <c r="M58" s="35" t="str">
+        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="N58" s="35" t="str">
+        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="O58" s="35" t="str">
+        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="P58" s="35" t="str">
+        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$23),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="51" t="str">
+        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="R58" s="51" t="str">
+        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S58" s="51" t="str">
+        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="T58" s="51" t="str">
+        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="U58" s="51" t="str">
+        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="V58" s="51" t="str">
+        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="W58" s="51" t="str">
+        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="X58" s="51" t="str">
+        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Y58" s="51" t="str">
+        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="Z58" s="51" t="str">
+        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AA58" s="51" t="str">
+        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$23),"X","")</f>
+        <v>X</v>
+      </c>
       <c r="AB58" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC58" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD58" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE58" s="15"/>
@@ -5631,10 +5676,10 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5644,76 +5689,31 @@
       <c r="J59" s="15"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="35" t="str">
-        <f>IF(AND(M2&gt;$D$4,M2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="N59" s="35" t="str">
-        <f>IF(AND(N2&gt;$D$4,N2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="O59" s="35" t="str">
-        <f>IF(AND(O2&gt;$D$4,O2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="P59" s="35" t="str">
-        <f>IF(AND(P2&gt;$D$4,P2&lt;=$D$4+$D$24),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q59" s="51" t="str">
-        <f>IF(AND(Q2&gt;$D$4,Q2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="R59" s="51" t="str">
-        <f>IF(AND(R2&gt;$D$4,R2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="S59" s="51" t="str">
-        <f>IF(AND(S2&gt;$D$4,S2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="T59" s="51" t="str">
-        <f>IF(AND(T2&gt;$D$4,T2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="U59" s="51" t="str">
-        <f>IF(AND(U2&gt;$D$4,U2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="V59" s="51" t="str">
-        <f>IF(AND(V2&gt;$D$4,V2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="W59" s="51" t="str">
-        <f>IF(AND(W2&gt;$D$4,W2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="X59" s="51" t="str">
-        <f>IF(AND(X2&gt;$D$4,X2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Y59" s="51" t="str">
-        <f>IF(AND(Y2&gt;$D$4,Y2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="Z59" s="51" t="str">
-        <f>IF(AND(Z2&gt;$D$4,Z2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AA59" s="51" t="str">
-        <f>IF(AND(AA2&gt;$D$4,AA2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="51"/>
       <c r="AB59" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC59" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD59" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE59" s="15"/>
@@ -5725,10 +5725,10 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5754,15 +5754,15 @@
       <c r="Z60" s="51"/>
       <c r="AA60" s="51"/>
       <c r="AB60" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AC60" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AD60" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
+        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$23),"X","")</f>
         <v>X</v>
       </c>
       <c r="AE60" s="15"/>
@@ -5773,171 +5773,174 @@
       <c r="AJ60" s="12"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="51"/>
-      <c r="X61" s="51"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="51"/>
-      <c r="AA61" s="51"/>
-      <c r="AB61" s="51" t="str">
-        <f>IF(AND(AB2&gt;$D$4,AB2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AC61" s="15" t="str">
-        <f>IF(AND(AC2&gt;$D$4,AC2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AD61" s="15" t="str">
-        <f>IF(AND(AD2&gt;$D$4,AD2&lt;=$D$4+$D$24),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AE61" s="15"/>
-      <c r="AF61" s="15"/>
-      <c r="AG61" s="15"/>
-      <c r="AH61" s="15"/>
-      <c r="AI61" s="15"/>
-      <c r="AJ61" s="12"/>
+      <c r="A61" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="45">
+        <v>4</v>
+      </c>
+      <c r="E61" s="47">
+        <f>F23</f>
+        <v>45795</v>
+      </c>
+      <c r="F61" s="47">
+        <f>E61+D61*7</f>
+        <v>45823</v>
+      </c>
+      <c r="G61" s="48" t="str">
+        <f>IF(AND(G2&gt;$D$4+$D$23,G2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="H61" s="48" t="str">
+        <f>IF(AND(H2&gt;$D$4+$D$23,H2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="I61" s="48" t="str">
+        <f>IF(AND(I2&gt;$D$4+$D$23,I2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="J61" s="48" t="str">
+        <f>IF(AND(J2&gt;$D$4+$D$23,J2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="K61" s="48" t="str">
+        <f>IF(AND(K2&gt;$D$4+$D$23,K2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="L61" s="48" t="str">
+        <f>IF(AND(L2&gt;$D$4+$D$23,L2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="M61" s="48" t="str">
+        <f>IF(AND(M2&gt;$D$4+$D$23,M2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48" t="str">
+        <f>IF(AND(O2&gt;$D$4+$D$23,O2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="P61" s="48" t="str">
+        <f>IF(AND(P2&gt;$D$4+$D$23,P2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="48" t="str">
+        <f>IF(AND(Q2&gt;$D$4+$D$23,Q2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="R61" s="48" t="str">
+        <f>IF(AND(R2&gt;$D$4+$D$23,R2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="S61" s="48" t="str">
+        <f>IF(AND(S2&gt;$D$4+$D$23,S2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="T61" s="48" t="str">
+        <f>IF(AND(T2&gt;$D$4+$D$23,T2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="U61" s="48" t="str">
+        <f>IF(AND(U2&gt;$D$4+$D$23,U2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="V61" s="48" t="str">
+        <f>IF(AND(V2&gt;$D$4+$D$23,V2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="W61" s="48" t="str">
+        <f>IF(AND(W2&gt;$D$4+$D$23,W2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="X61" s="48" t="str">
+        <f>IF(AND(X2&gt;$D$4+$D$23,X2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="Y61" s="48" t="str">
+        <f>IF(AND(Y2&gt;$D$4+$D$23,Y2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="48" t="str">
+        <f>IF(AND(Z2&gt;$D$4+$D$23,Z2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AA61" s="48" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$23,AA2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB61" s="48" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$23,AB2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC61" s="48"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="48"/>
+      <c r="AF61" s="48"/>
+      <c r="AG61" s="48"/>
+      <c r="AH61" s="48"/>
+      <c r="AI61" s="48" t="str">
+        <f>IF(AND(AI2&gt;$D$4+$D$23,AI2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AJ61" s="48"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="45">
-        <v>4</v>
-      </c>
-      <c r="E62" s="47">
-        <f>F24</f>
-        <v>45795</v>
-      </c>
-      <c r="F62" s="47">
-        <f>E62+D62*7</f>
-        <v>45823</v>
-      </c>
-      <c r="G62" s="48" t="str">
-        <f>IF(AND(G2&gt;$D$4+$D$24,G2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="H62" s="48" t="str">
-        <f>IF(AND(H2&gt;$D$4+$D$24,H2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="I62" s="48" t="str">
-        <f>IF(AND(I2&gt;$D$4+$D$24,I2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="J62" s="48" t="str">
-        <f>IF(AND(J2&gt;$D$4+$D$24,J2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="K62" s="48" t="str">
-        <f>IF(AND(K2&gt;$D$4+$D$24,K2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="L62" s="48" t="str">
-        <f>IF(AND(L2&gt;$D$4+$D$24,L2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="M62" s="48" t="str">
-        <f>IF(AND(M2&gt;$D$4+$D$24,M2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48" t="str">
-        <f>IF(AND(O2&gt;$D$4+$D$24,O2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="P62" s="48" t="str">
-        <f>IF(AND(P2&gt;$D$4+$D$24,P2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="48" t="str">
-        <f>IF(AND(Q2&gt;$D$4+$D$24,Q2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="R62" s="48" t="str">
-        <f>IF(AND(R2&gt;$D$4+$D$24,R2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="S62" s="48" t="str">
-        <f>IF(AND(S2&gt;$D$4+$D$24,S2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="T62" s="48" t="str">
-        <f>IF(AND(T2&gt;$D$4+$D$24,T2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="U62" s="48" t="str">
-        <f>IF(AND(U2&gt;$D$4+$D$24,U2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="V62" s="48" t="str">
-        <f>IF(AND(V2&gt;$D$4+$D$24,V2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="W62" s="48" t="str">
-        <f>IF(AND(W2&gt;$D$4+$D$24,W2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="X62" s="48" t="str">
-        <f>IF(AND(X2&gt;$D$4+$D$24,X2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="Y62" s="48" t="str">
-        <f>IF(AND(Y2&gt;$D$4+$D$24,Y2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="48" t="str">
-        <f>IF(AND(Z2&gt;$D$4+$D$24,Z2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AA62" s="48" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB62" s="48" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC62" s="48"/>
-      <c r="AD62" s="48"/>
-      <c r="AE62" s="48"/>
-      <c r="AF62" s="48"/>
-      <c r="AG62" s="48"/>
-      <c r="AH62" s="48"/>
-      <c r="AI62" s="48" t="str">
-        <f>IF(AND(AI2&gt;$D$4+$D$24,AI2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AJ62" s="48"/>
+      <c r="B62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="52" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF62" s="52" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG62" s="52" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AH62" s="52" t="str">
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AI62" s="17"/>
+      <c r="AJ62" s="12"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C63" s="8"/>
       <c r="E63" s="1"/>
@@ -5959,39 +5962,29 @@
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
       <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB63" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC63" s="17" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AD63" s="17" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA63" s="61"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
       <c r="AE63" s="52" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AF63" s="52" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AG63" s="52" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH63" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI63" s="17"/>
@@ -5999,7 +5992,7 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C64" s="8"/>
       <c r="E64" s="1"/>
@@ -6021,27 +6014,27 @@
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="61"/>
+      <c r="AD64" s="61"/>
       <c r="AE64" s="52" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AF64" s="52" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AG64" s="52" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH64" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI64" s="17"/>
@@ -6049,7 +6042,7 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C65" s="8"/>
       <c r="E65" s="1"/>
@@ -6071,27 +6064,27 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="17"/>
-      <c r="AC65" s="17"/>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="52" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF65" s="52" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG65" s="52" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="53" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF65" s="53" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG65" s="53" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH65" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI65" s="17"/>
@@ -6099,7 +6092,7 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="8"/>
       <c r="E66" s="1"/>
@@ -6121,27 +6114,27 @@
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
       <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="17"/>
-      <c r="AD66" s="17"/>
-      <c r="AE66" s="52" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF66" s="52" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG66" s="52" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="61"/>
+      <c r="AC66" s="61"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="53" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF66" s="53" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG66" s="53" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH66" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI66" s="17"/>
@@ -6171,27 +6164,29 @@
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
       <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="17"/>
-      <c r="AD67" s="17"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
       <c r="AE67" s="53" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AF67" s="53" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AG67" s="53" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH67" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI67" s="17"/>
@@ -6199,7 +6194,7 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C68" s="8"/>
       <c r="E68" s="1"/>
@@ -6221,27 +6216,29 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
       <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="17"/>
-      <c r="AC68" s="17"/>
-      <c r="AD68" s="17"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA68" s="61"/>
+      <c r="AB68" s="61"/>
+      <c r="AC68" s="61"/>
+      <c r="AD68" s="61"/>
       <c r="AE68" s="53" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AF68" s="53" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AG68" s="53" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH68" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI68" s="17"/>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C69" s="8"/>
       <c r="E69" s="1"/>
@@ -6271,27 +6268,29 @@
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="17"/>
-      <c r="AB69" s="17"/>
-      <c r="AC69" s="17"/>
-      <c r="AD69" s="17"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+      <c r="Z69" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="61"/>
+      <c r="AC69" s="61"/>
+      <c r="AD69" s="61"/>
       <c r="AE69" s="53" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AF69" s="53" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AG69" s="53" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH69" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI69" s="17"/>
@@ -6299,7 +6298,7 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="8"/>
       <c r="E70" s="1"/>
@@ -6321,27 +6320,39 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
       <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
-      <c r="AB70" s="17"/>
-      <c r="AC70" s="17"/>
-      <c r="AD70" s="17"/>
-      <c r="AE70" s="53" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF70" s="53" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG70" s="53" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="61"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="61" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$23,AA2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB70" s="61" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$23,AB2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC70" s="61" t="str">
+        <f>IF(AND(AC2&gt;$D$4+$D$23,AC2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AD70" s="61" t="str">
+        <f>IF(AND(AD2&gt;$D$4+$D$23,AD2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE70" s="52" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF70" s="52" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG70" s="52" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH70" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI70" s="17"/>
@@ -6349,7 +6360,7 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="8"/>
       <c r="E71" s="1"/>
@@ -6371,27 +6382,45 @@
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="17"/>
-      <c r="AC71" s="17"/>
-      <c r="AD71" s="17"/>
-      <c r="AE71" s="53" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF71" s="53" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG71" s="53" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+      <c r="X71" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y71" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z71" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA71" s="61" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$23,AA2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB71" s="61" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$23,AB2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC71" s="61" t="str">
+        <f>IF(AND(AC2&gt;$D$4+$D$23,AC2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AD71" s="61" t="str">
+        <f>IF(AND(AD2&gt;$D$4+$D$23,AD2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE71" s="52" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$23,AE2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AF71" s="52" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$23,AF2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="AG71" s="52" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$23,AG2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AH71" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AH2&gt;$D$4+$D$23,AH2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v>X</v>
       </c>
       <c r="AI71" s="17"/>
@@ -6425,44 +6454,24 @@
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
       <c r="AA72" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4+$D$23,AA2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v/>
       </c>
       <c r="AB72" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC72" s="17" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AD72" s="17" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE72" s="52" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF72" s="52" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG72" s="52" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AH72" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
+        <f>IF(AND(AB2&gt;$D$4+$D$23,AB2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
       <c r="AI72" s="17"/>
       <c r="AJ72" s="12"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6487,307 +6496,211 @@
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
       <c r="AA73" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
+        <f>IF(AND(AA2&gt;$D$4+$D$23,AA2&lt;=$D$4+$D$23+$D$61),"X","")</f>
         <v/>
       </c>
       <c r="AB73" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC73" s="17" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24,AC2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AD73" s="17" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24,AD2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE73" s="52" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24,AE2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AF73" s="52" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24,AF2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AG73" s="52" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24,AG2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="AH73" s="52" t="str">
-        <f>IF(AND(AH2&gt;$D$4+$D$24,AH2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v>X</v>
-      </c>
+        <f>IF(AND(AB2&gt;$D$4+$D$23,AB2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="17"/>
+      <c r="AE73" s="17"/>
+      <c r="AF73" s="17"/>
+      <c r="AG73" s="17"/>
+      <c r="AH73" s="17"/>
       <c r="AI73" s="17"/>
       <c r="AJ73" s="12"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB74" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC74" s="17"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="17"/>
-      <c r="AG74" s="17"/>
-      <c r="AH74" s="17"/>
-      <c r="AI74" s="17"/>
-      <c r="AJ74" s="12"/>
+    <row r="74" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="18" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$23,AA2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB74" s="18" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$23,AB2&lt;=$D$4+$D$23+$D$61),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="18"/>
+      <c r="AE74" s="18"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="18"/>
+      <c r="AI74" s="18"/>
+      <c r="AJ74" s="6"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB75" s="17" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC75" s="17"/>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
-      <c r="AH75" s="17"/>
-      <c r="AI75" s="17"/>
-      <c r="AJ75" s="12"/>
-    </row>
-    <row r="76" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="18" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24,AA2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB76" s="18" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24,AB2&lt;=$D$4+$D$24+$D$62),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-      <c r="AE76" s="18"/>
-      <c r="AF76" s="18"/>
-      <c r="AG76" s="18"/>
-      <c r="AH76" s="18"/>
-      <c r="AI76" s="18"/>
-      <c r="AJ76" s="6"/>
+      <c r="A75" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="45">
+        <v>1</v>
+      </c>
+      <c r="E75" s="47">
+        <f>F61</f>
+        <v>45823</v>
+      </c>
+      <c r="F75" s="47">
+        <f>E75+D75*7</f>
+        <v>45830</v>
+      </c>
+      <c r="G75" s="48" t="str">
+        <f>IF(AND(G2&gt;$D$4+$D$23+$D$61,G2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="H75" s="48" t="str">
+        <f>IF(AND(H2&gt;$D$4+$D$23+$D$61,H2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="I75" s="48" t="str">
+        <f>IF(AND(I2&gt;$D$4+$D$23+$D$61,I2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="J75" s="48" t="str">
+        <f>IF(AND(J2&gt;$D$4+$D$23+$D$61,J2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="K75" s="48" t="str">
+        <f>IF(AND(K2&gt;$D$4+$D$23+$D$61,K2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="L75" s="48" t="str">
+        <f>IF(AND(L2&gt;$D$4+$D$23+$D$61,L2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="M75" s="48" t="str">
+        <f>IF(AND(M2&gt;$D$4+$D$23+$D$61,M2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="N75" s="48" t="str">
+        <f>IF(AND(N2&gt;$D$4+$D$23+$D$61,N2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="O75" s="48" t="str">
+        <f>IF(AND(O2&gt;$D$4+$D$23+$D$61,O2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="P75" s="48" t="str">
+        <f>IF(AND(P2&gt;$D$4+$D$23+$D$61,P2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="Q75" s="48" t="str">
+        <f>IF(AND(Q2&gt;$D$4+$D$23+$D$61,Q2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="R75" s="48" t="str">
+        <f>IF(AND(R2&gt;$D$4+$D$23+$D$61,R2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="S75" s="48" t="str">
+        <f>IF(AND(S2&gt;$D$4+$D$23+$D$61,S2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="T75" s="48" t="str">
+        <f>IF(AND(T2&gt;$D$4+$D$23+$D$61,T2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="U75" s="48" t="str">
+        <f>IF(AND(U2&gt;$D$4+$D$23+$D$61,U2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="V75" s="48" t="str">
+        <f>IF(AND(V2&gt;$D$4+$D$23+$D$61,V2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="W75" s="48" t="str">
+        <f>IF(AND(W2&gt;$D$4+$D$23+$D$61,W2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="X75" s="48" t="str">
+        <f>IF(AND(X2&gt;$D$4+$D$23+$D$61,X2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="Y75" s="48" t="str">
+        <f>IF(AND(Y2&gt;$D$4+$D$23+$D$61,Y2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="Z75" s="48" t="str">
+        <f>IF(AND(Z2&gt;$D$4+$D$23+$D$61,Z2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AA75" s="48" t="str">
+        <f>IF(AND(AA2&gt;$D$4+$D$23+$D$61,AA2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AB75" s="48" t="str">
+        <f>IF(AND(AB2&gt;$D$4+$D$23+$D$61,AB2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AC75" s="48" t="str">
+        <f>IF(AND(AC2&gt;$D$4+$D$23+$D$61,AC2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AD75" s="48" t="str">
+        <f>IF(AND(AD2&gt;$D$4+$D$23+$D$61,AD2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AE75" s="48" t="str">
+        <f>IF(AND(AE2&gt;$D$4+$D$23+$D$61,AE2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AF75" s="48" t="str">
+        <f>IF(AND(AF2&gt;$D$4+$D$23+$D$61,AF2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AG75" s="48" t="str">
+        <f>IF(AND(AG2&gt;$D$4+$D$23+$D$61,AG2&lt;=$D$4+$D$23+$D$61+$D$75),"X","")</f>
+        <v/>
+      </c>
+      <c r="AH75" s="48"/>
+      <c r="AI75" s="48"/>
+      <c r="AJ75" s="44"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="AI76" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ76" s="49" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="45">
-        <v>1</v>
-      </c>
-      <c r="E77" s="47">
-        <f>F62</f>
-        <v>45823</v>
-      </c>
-      <c r="F77" s="47">
-        <f>E77+D77*7</f>
-        <v>45830</v>
-      </c>
-      <c r="G77" s="48" t="str">
-        <f>IF(AND(G2&gt;$D$4+$D$24+$D$62,G2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="H77" s="48" t="str">
-        <f>IF(AND(H2&gt;$D$4+$D$24+$D$62,H2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="I77" s="48" t="str">
-        <f>IF(AND(I2&gt;$D$4+$D$24+$D$62,I2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="J77" s="48" t="str">
-        <f>IF(AND(J2&gt;$D$4+$D$24+$D$62,J2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="K77" s="48" t="str">
-        <f>IF(AND(K2&gt;$D$4+$D$24+$D$62,K2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="L77" s="48" t="str">
-        <f>IF(AND(L2&gt;$D$4+$D$24+$D$62,L2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="M77" s="48" t="str">
-        <f>IF(AND(M2&gt;$D$4+$D$24+$D$62,M2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="N77" s="48" t="str">
-        <f>IF(AND(N2&gt;$D$4+$D$24+$D$62,N2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="O77" s="48" t="str">
-        <f>IF(AND(O2&gt;$D$4+$D$24+$D$62,O2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="P77" s="48" t="str">
-        <f>IF(AND(P2&gt;$D$4+$D$24+$D$62,P2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="Q77" s="48" t="str">
-        <f>IF(AND(Q2&gt;$D$4+$D$24+$D$62,Q2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="R77" s="48" t="str">
-        <f>IF(AND(R2&gt;$D$4+$D$24+$D$62,R2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="S77" s="48" t="str">
-        <f>IF(AND(S2&gt;$D$4+$D$24+$D$62,S2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="T77" s="48" t="str">
-        <f>IF(AND(T2&gt;$D$4+$D$24+$D$62,T2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="U77" s="48" t="str">
-        <f>IF(AND(U2&gt;$D$4+$D$24+$D$62,U2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="V77" s="48" t="str">
-        <f>IF(AND(V2&gt;$D$4+$D$24+$D$62,V2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="W77" s="48" t="str">
-        <f>IF(AND(W2&gt;$D$4+$D$24+$D$62,W2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="X77" s="48" t="str">
-        <f>IF(AND(X2&gt;$D$4+$D$24+$D$62,X2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="Y77" s="48" t="str">
-        <f>IF(AND(Y2&gt;$D$4+$D$24+$D$62,Y2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="Z77" s="48" t="str">
-        <f>IF(AND(Z2&gt;$D$4+$D$24+$D$62,Z2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AA77" s="48" t="str">
-        <f>IF(AND(AA2&gt;$D$4+$D$24+$D$62,AA2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AB77" s="48" t="str">
-        <f>IF(AND(AB2&gt;$D$4+$D$24+$D$62,AB2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AC77" s="48" t="str">
-        <f>IF(AND(AC2&gt;$D$4+$D$24+$D$62,AC2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AD77" s="48" t="str">
-        <f>IF(AND(AD2&gt;$D$4+$D$24+$D$62,AD2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AE77" s="48" t="str">
-        <f>IF(AND(AE2&gt;$D$4+$D$24+$D$62,AE2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AF77" s="48" t="str">
-        <f>IF(AND(AF2&gt;$D$4+$D$24+$D$62,AF2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AG77" s="48" t="str">
-        <f>IF(AND(AG2&gt;$D$4+$D$24+$D$62,AG2&lt;=$D$4+$D$24+$D$62+$D$77),"X","")</f>
-        <v/>
-      </c>
-      <c r="AH77" s="48"/>
-      <c r="AI77" s="48"/>
-      <c r="AJ77" s="44"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C78" s="8"/>
-      <c r="AI78" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ78" s="49" t="s">
-        <v>53</v>
-      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
@@ -6812,47 +6725,39 @@
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G24:P24 AB24:AI24 G25:AI27 G28:L28 N28:AI28 G29:AI30 G31:J32 L31:M32 O31:AI32 G33:AI61">
+  <conditionalFormatting sqref="G23:P23 AB23:AI23 G24:AI26 G27:L27 N27:AI27 G28:AI29 G30:J31 L30:M31 O30:AI31 G32:AI60">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",G24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:AI76">
+  <conditionalFormatting sqref="G61:AI74">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",G62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:AI77">
+  <conditionalFormatting sqref="G75:AI75">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",G77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",G75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI23">
+  <conditionalFormatting sqref="Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI22">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 Confidential C</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="J7 J20:J22" formula="1"/>
+    <ignoredError sqref="J7 J20:J21" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6868,7 +6773,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI23</xm:sqref>
+          <xm:sqref>Q4:AI4 G5:AI14 G15:N15 P15:AI15 G16:AI22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
